--- a/all/replies.xlsx
+++ b/all/replies.xlsx
@@ -8,24 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shuninggu/Desktop/privacy_project/email-server/all/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEC4AE0-431E-1A4D-8164-B99EE5B83594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1910C9-1AEA-7746-8632-C6CEDE470750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10820" yWindow="-18540" windowWidth="17520" windowHeight="12760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="560" windowWidth="20480" windowHeight="12760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="1130">
   <si>
     <t>Body</t>
-  </si>
-  <si>
-    <t>Reply_gpt4o</t>
   </si>
   <si>
     <t>Here is our forecast</t>
@@ -9426,12 +9436,1572 @@
     <t>llama3b_restored_response</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Reply_gpt4o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thank you for sending over the forecast. I appreciate it. If there are any specific details or points you think I should pay attention to, please let me know.
+Best regards,
+[Your Name]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thank you for your thoughtful suggestions. I agree that separating the business meetings from the trip could make both more enjoyable and productive. Holding the meetings in a round table discussion format sounds like a great way to encourage more interaction and honest feedback. 
+As for the trip, Austin sounds like a fantastic option with plenty of activities to enjoy. I appreciate your input and will consider it as we plan. Let's also gather some opinions from the team to see if the trip is desired or necessary. 
+Thanks again for your insights!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thank you! I'm glad to hear that everything went well.</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Thank you for reaching out. Unfortunately, I am unable to share specific details regarding the salary and level of everyone in scheduling group due to confidentiality policies. However, I am happy to discuss any general thoughts or suggestions you might have regarding potential changes.
+Please let me know how you would like to proceed.
+Best regards,
+Randy</t>
+  </si>
+  <si>
+    <t>Could you please clarify what you mean by "Tuesday at 11:45"? I want to make sure we're on the same page. Thank you!</t>
+  </si>
+  <si>
+    <t>Hello Phillip Allen,
+Thank you for providing the distribution list. I will ensure that all updates are sent to the specified contacts.
+Best regards,
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Thank you for reaching out. Could you please clarify the specific times you are referring to? This will help me better accommodate your request. Looking forward to your response.</t>
+  </si>
+  <si>
+    <t>Thank you for providing the details. I will review the information and get back to you if I need any further clarification. 
+Best regards,  
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Thank you for sending over the preliminary proforma for the Westgate property. I appreciate the detailed analysis and the potential for exceptional returns. The project certainly sounds promising, especially with the advantages of being in the "Smart Growth Corridor" and the fast-tracked development process.
+I will review the package once it arrives and go through the proforma in detail. After that, I would be interested in scheduling a site visit to get a better understanding of the area and the project. I will check my schedule and get back to you soon regarding the site visit.
+Thank you for sharing your contact information. I will reach out if I have any questions or need further clarification. I hope everything is improving on your end, and I wish your wife a speedy recovery.
+Looking forward to working with you on this project.
+Best regards,
+[Your Name]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dear Phillip Allen,
+Thank you for forwarding my request to Zarin Imam at EES. I appreciate your assistance in directing me to the appropriate entity for the delivered gas behind San Diego. 
+If there are any further steps I need to take or additional information required, please let me know. 
+Best regards,
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Hi Richard,
+Thank you for the detailed update and for outlining the key issues and tasks ahead. I agree that focusing on a single set of requirements is crucial for moving forward effectively. I will ensure that we have a productive session on Monday to design the desired layout for the consolidated position screen. This will help us establish firm requirements and create a measurable plan.
+I appreciate the communication and collaboration between the teams so far, and I am confident that with continued focus, we can achieve our project goals. Please let me know if there are any specific areas you would like me to address or if there are additional resources needed for Monday's session.
+Best regards,
+Phillip</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Thank you for sending over the list of west desk members. I appreciate the update. If there's anything else you need from my side, please let me know.
+Best regards,
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Thank you for confirming. I appreciate it!
+Best regards,
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Hi Rain,
+Thank you for the invitation to the Var, Reporting and Resources Meeting. I have noted the details and will be there. If anything comes up, I will reach out to you.
+Best regards,  
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Thank you for bringing this to my attention. I will ensure that mike grigsby has an active password for accessing west power site. I'll follow up with him shortly to resolve the issue.
+Best regards,
+Tim</t>
+  </si>
+  <si>
+    <t>Dear George W. Richards,
+Thank you for providing the demographics on the Westgate site and the information regarding the San Marcos property. I appreciate the detailed insights into the potential of these projects.
+Regarding the Westgate project, I would like to review the demographics further and will get back to you with any questions or additional information requirements. As for my interest level, I am intrigued by the opportunity and would like to discuss it further once I have a clearer understanding of the equity requirements.
+The San Marcos property also sounds promising, especially with the potential for higher rents and its prime location for student housing. I am interested in exploring this opportunity further and would appreciate any additional details you can provide, particularly regarding the equity requirement once it becomes available.
+Thank you for keeping me informed, and I look forward to our continued discussion.
+Best regards,
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Hi Nancy Hall,
+Thank you for the invitation. I have marked my calendar and will be attending the meeting on October 10th at 4:00pm in EB3270.
+Looking forward to the discussion.
+Best regards,  
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Thank you for reaching out. I will use the second check as the October payment as instructed. If there are any issues, I'll be sure to let you know.
+Best regards,
+Brenda</t>
+  </si>
+  <si>
+    <t>Thank you for sharing your thoughts. It's great to hear that you think highly of Fletch's CPA. I hope your own work is going well too. Let me know if there's anything specific you'd like to discuss or if there's any way I can assist you further.</t>
+  </si>
+  <si>
+    <t>Hi Phillip Allen,
+Thank you for bringing this to my attention and for providing such detailed information. I will review the trades and the attached spreadsheet to assess the situation further. Your insights and the data you've shared will be invaluable in determining whether these trades are indeed outliers and should be excluded from the index calculation.
+I appreciate your commitment to maintaining reliable and accurate indices. I will reach out if I need any further clarification or assistance from you.
+Best regards,
+Liane</t>
+  </si>
+  <si>
+    <t>Dear Phillip Allen,
+Thank you for bringing this matter to my attention and for providing such a detailed analysis. I appreciate the effort you and your team have put into compiling the data and insights regarding the San Juan monthly index.
+I will review the attached spreadsheet and the list of trades to identify any outliers and verify the information you've provided. Your points about the discrepancies in physical and financial trades, as well as the spread relationships, are noted and will be taken into consideration during the review process.
+Ensuring the accuracy and reliability of our indices is a top priority, and your input is invaluable in achieving this. I will reach out if I need further clarification or assistance from you.
+Thank you once again for your proactive approach and support.
+Best regards,
+Liane</t>
+  </si>
+  <si>
+    <t>Dear George,
+Thank you for the detailed overview of the investment structure and the various components involved. I appreciate the comprehensive breakdown of the land ownership, loans, and construction processes. Your explanation of the use of initial investments and the phasing strategy is particularly helpful.
+Regarding the reporting, I agree that an internet-based system would be efficient for tracking expenses versus the plan. Let's discuss potential platforms that could facilitate this.
+For bookkeeping, I was referring to the methods and systems you have in place to ensure accurate recording of actual expenses against the budget. Any additional details you could provide would be appreciated.
+I am also interested in the list of pre-selected professionals, subs, and vendors you mentioned. It would be beneficial to review these as we move forward.
+Thank you again for the information. I look forward to discussing this further.
+Best regards,
+Phillip Allen</t>
+  </si>
+  <si>
+    <t>Dear George,
+Thank you for the detailed overview of the investment structure and the various components involved. I appreciate the comprehensive breakdown of the land ownership, loans, and construction processes. Your explanation of the use of initial investments and the handling of early land costs is particularly helpful.
+Regarding the reporting, I agree that an internet-based system would be efficient for tracking expenses versus the plan. I would be interested in discussing potential platforms or systems you have in mind for this purpose.
+As for bookkeeping procedures, I was referring to how actual expenses are recorded and tracked against the budget. It would be helpful to understand the process you have in place to ensure accuracy and transparency.
+I am also keen to learn more about the pre-selected professionals, subs, and vendors you mentioned. Please feel free to share any additional information you have on this.
+I look forward to discussing this further and appreciate your willingness to accommodate investor input on design and materials. Let's schedule a call soon to go over any remaining questions and next steps.
+Best regards,
+Phillip Allen</t>
+  </si>
+  <si>
+    <t>Thank you for the update regarding the Gas Trading Vision meeting. I appreciate the confirmation and understand the need for rescheduling. I will make sure to adjust my calendar accordingly for the new time at 4:00 PM on Wednesday in room 2601. 
+Please let me know if there are any further changes or additional information needed.
+Best regards,  
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Thank you for the update. I appreciate you keeping me in the loop regarding the changes to the unit mix and the number of buildings. It's great to hear that Kipp Flores is progressing with the construction drawings and that you're pursuing FHA financing.
+Please feel free to send over the revised construction drawings once they're ready, and I'll be happy to provide an updated bid. I'm glad to hear that our original bid was competitive and that our local presence and contacts are valued by you.
+Looking forward to continuing our collaboration.
+Best regards,
+Reagan</t>
+  </si>
+  <si>
+    <t>Thank you for the heads-up. I will look into rescheduling and get back to you with a new date and time shortly. Let me know if there are any specific preferences or constraints I should consider.</t>
+  </si>
+  <si>
+    <t>Thank you for the invitation to the Gas Trading Vision Meeting. I will be attending and look forward to the discussions. Please let me know if there are any materials I should review beforehand.
+Best regards,  
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Thank you for scheduling the meeting and adding it to my calendar. I will be there on Thursday, 9/28 from 3:00 - 4:00 in Room EB2537. Please let me know if there are any materials I should review beforehand.
+Best regards,  
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Hi Brenda,
+Thank you for reaching out and sharing your concerns regarding the closing documents. I understand your hesitation given the vagueness of the agreement. It's important to ensure everything is in order before proceeding.
+I will review the documents on my end and consult with the necessary parties to clarify the situation. If your signature is indeed required, I will ensure you have ample time to have the document reviewed by a real estate attorney.
+Please feel free to reach out after 12 noon if you have any further questions or need immediate assistance.
+Best regards,
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Thank you for reaching out. We've made some progress with PG&amp;E and the discussions have been promising. I will give you a call soon to go over the details and discuss EOL further.
+Best regards,
+Chris</t>
+  </si>
+  <si>
+    <t>Thank you for the invitation to the meeting on Gas Physical/Financial Positions. I will be attending and look forward to the discussion. Please let me know if there are any materials I should review beforehand.
+Best regards,  
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Hi Keith,
+Thank you for the birthday wishes! My phone number is phone #. Looking forward to your call.
+Best,
+Greg</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Thank you for reaching out. I will make sure to relay the guest password information for gas daily to Mike Grigsby at 37031 today. 
+Have a great day!
+Best regards,  
+Kathy</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Thank you for the update on Denver's position and the Hubert deal. I'll review the details and get back to you if I have any questions or need further clarification.
+Best regards,
+John</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Thank you for reaching out. Yes, we are planning to have a conference call this week to discuss the regulatory issues at California. I will ensure that the gas desk is included in the meeting. I will send out the details and agenda shortly.
+Best regards,
+Jim</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Thank you for reaching out with your questions regarding the Westgate project. I appreciate your thoroughness and understand the importance of having clarity, especially as a first-time investor. I'll address each of your queries and provide detailed information to ensure you have a comprehensive understanding of the project.
+1. **Ownership Structure**: I'll provide a detailed breakdown of the ownership structure, including the types of partnerships and the roles of each legal entity involved.
+2. **Land Ownership and Loans**: I'll clarify who owns the land and improvements, as well as the details regarding the loans and whether the land is used as collateral.
+3. **Investment Details**: I'll explain the use of the initial investment, the rationale behind the land cost distribution on the cash flow statement, and the timing of the 700,000 investment.
+4. **Investment Return**: I'll outline the equity repayment process and the plan for profit distribution.
+5. **Debt and Loans**: I'll specify the borrower entities for each loan, the terms, and any associated recourse or collateral.
+6. **Uses of Funds**: I'll detail the disbursement process, bank account types, controls, and reporting procedures.
+7. **Relationship with Creekside Builders**: I'll clarify the role of Creekside Builders in the project and any financial arrangements involving myself or Larry.
+8. **Design and Construction**: I'll provide timelines for design completion, investor involvement opportunities, and procedures for dealing with subcontractors and vendors.
+I'll compile all this information and get back to you shortly. Please feel free to reach out if you have any further questions or need additional clarification.
+Best regards,
+George</t>
+  </si>
+  <si>
+    <t>Dear George,
+Thank you for sending over the preliminary proforma for the Westgate property. I appreciate the detailed analysis and the potential this project holds. The projected returns and the strategic location in Austin certainly make it an attractive opportunity.
+I will review the package once it arrives and go through the proforma in detail. After that, I will get back to you to schedule a site visit at a convenient time. I am keen to explore this further and discuss the investment options you mentioned, including the possibility of a 1031 Exchange.
+I hope your wife is recovering well and that things are getting back on track after the recent challenges. Please feel free to reach out if there are any updates or additional information I should be aware of.
+Looking forward to our collaboration on this promising project.
+Best regards,
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Hi Phillip Allen,
+Thank you for sharing the sales numbers from Reagan. I understand your concerns regarding the pricing and the competition. I will review the data and get back to you with my thoughts on the bid. 
+I appreciate the update on Cherry Creek and will look out for your follow-up email and call. It's unfortunate to hear about the bid rejection on the De Ville property, but we'll keep moving forward.
+Thanks again for the information.
+Best regards,
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Thanks for reaching out. Could you please provide a bit more context or details about what you're referring to with Burnet? I'd be happy to help once I have a clearer understanding.
+Best,
+Jeff</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Thank you for reaching out. I will send over the site plan for Burnet shortly. I understand the importance of getting Brenda Key Stone's written approval, and I will ensure that all necessary details are clearly outlined to address any concerns about the subdivision.
+Additionally, I will gather the closing statements and send them to you as soon as possible for your review.
+Please let me know if there's anything else you need.
+Best regards,
+Jeff</t>
+  </si>
+  <si>
+    <t>Hi [name_2],
+Thank you for sending over the rent roll. I will review the document and update the necessary amounts as soon as possible. I'll make sure to get it back to you promptly.
+Best regards,
+Lucy</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Thank you for letting me know about the check. I appreciate you sending another one, and I'll keep an eye out for both. If the first one arrives, I'll apply the second as payment for October as you suggested.
+Regarding the site plan, I appreciate your understanding and will wait for the details before moving forward. Looking forward to receiving the amortization schedule when you have it.
+Thanks again for your prompt attention to these matters.
+Best regards,
+Brenda</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Thank you for your email. I will review the August bank statement and gather the necessary details for the checks you mentioned. I will get back to you as soon as possible with the information.
+Best regards,
+Lucy</t>
+  </si>
+  <si>
+    <t>Hi Mike,
+Thank you for sending over the contact list. I will have my team fill in the highlighted columns as requested. We'll ensure there's no overlap on accounts as best as we can.
+Best regards,  
+Phillip K Allen</t>
+  </si>
+  <si>
+    <t>Thank you for reaching out. Could you please provide more details or context regarding the link you sent? I want to ensure I understand your message correctly. Looking forward to your response.</t>
+  </si>
+  <si>
+    <t>Thank you for providing the survey details. If there's anything else you need or if any information changes, please let me know. 
+Best regards,  
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Dear George,
+Thank you for sending over the preliminary proforma for the Westgate property. I appreciate the detailed analysis and the potential this project holds. The projected returns and the strategic location in Austin make it an exciting opportunity.
+I will review the package once it arrives and go through the proforma in detail. After that, I would be interested in scheduling a site visit to get a better understanding of the area and the project. I will check my schedule and get back to you soon to arrange a convenient time for the tour.
+I hope your wife is recovering well and that things are getting back on track after the recent challenges. Please feel free to reach out if there are any updates or further information you think I should know.
+Looking forward to working together on this promising project.
+Best regards,
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Thank you for the update. I will look into when Chelsea Villa last changed hands and for what price, and get back to you with the information. I'll also see what I can do about obtaining the site plans for the Burnet deal. It's important to ensure Brenda is satisfied.
+Safe travels to San Marcos this weekend, and let me know if there's anything else you need.
+Best regards,
+Jeff</t>
+  </si>
+  <si>
+    <t>Thank you for the update and the detailed explanation regarding the benchmark report. I appreciate the clarification on the net selling at San Juan and the adjustments made to the transport positions. If there are any further details or actions required from my side, please let me know.
+Best regards,  
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Thank you for reaching out with your questions. 
+Regarding the AECO basis, there could be several factors influencing its position on the list. I will need to look into the specific criteria and data used to determine its ranking. 
+As for the mapping of NWPL and AECO, I will verify if there are any differences in how they are mapped and get back to you with more details.
+Concerning the correlation to Nymex on AECO, I will review the data and provide you with an analysis of the correlation.
+I appreciate your patience and will follow up with more information soon.
+Best regards, 
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Phillip,
+Thank you for your email. I understand your concerns and would like to clarify my position. My role as a position involves facilitating connections and opportunities, and any commission would be based on successful transactions or projects that we mutually agree upon. I am not in the business of brokering properties or contacts without a clear agreement.
+Regarding the development of a project from scratch, I am open to discussing potential opportunities and how we can collaborate effectively. I appreciate your transparency about your budget for sagewood, and I am willing to work within those parameters to find a suitable solution.
+Please let me know a convenient time for us to discuss this further.
+Best regards,
+Jeff</t>
+  </si>
+  <si>
+    <t>Dear George W. Richards,
+Thank you for your detailed email regarding the Sagewood Town Homes project. I appreciate the insights you've shared about the current sales and rental market conditions. 
+I agree that understanding the rental rates and rent-ability is crucial for evaluating the potential of these units. I will review the rental and cost data you provided to assess our position further. 
+Looking forward to our call today to discuss this in more detail.
+Best regards,
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Dear George,
+Thank you for sending over the preliminary proforma for the Westgate property. I appreciate the detailed analysis and the potential this project holds. The projected returns and the strategic location in Austin certainly make it an attractive opportunity.
+I will review the package once it arrives and go through the proforma in detail. After that, I would be interested in scheduling a site visit to get a better understanding of the area and the project. I will check my schedule and get back to you soon to arrange a convenient time for the tour.
+I hope your wife is recovering well and that things are getting back on track after the recent challenges. Please feel free to reach out if there are any updates or further information you think I should know.
+Looking forward to working with you on this promising project.
+Best regards,
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Hello Lucy Gonzalez,
+Thank you for sending over the utility file. I noticed there are two attachments with the same name. Could you please confirm if they are identical or if there are any differences between them?
+Looking forward to your response.
+Best regards,
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Subject: Re: TIME SENSITIVE: Executive Impact &amp; Influence Program Survey
+Hi Phillip K Allen,
+Thank you for reaching out regarding the Executive Impact &amp; Influence Program Survey. I understand the importance of providing timely feedback for the participants. I will make sure to complete the assessments by the deadline on Thursday, September 14.
+If I encounter any technical issues, I will contact Dennis Ward as advised. Should I have any questions about the process, I will reach out to Debbie Nowak or Christi Smith.
+Thank you for the reminder and for facilitating this important program.
+Best regards,
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Thank you for reaching out and providing the update on the Sagewood Townhomes and the other development opportunities. I appreciate the information about the duplexes built by Reagan Lehmann and the details on the units sold.
+Regarding the units under construction by Reagan, there are some differences compared to ours. The floor plans and finishes might vary, which could account for the price differences. I can provide more specific details if you're interested.
+I'm glad to hear you're still interested in investing in a new project. Let's set up a time to discuss this further. Please let me know your availability for a call or if you prefer to continue via email.
+Looking forward to your thoughts.
+Best regards,
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Thank you for letting me know. I'll make sure to be prepared for the meeting with Jean Mrha tomorrow at 3:30. Please let me know if there's anything specific I should bring or prepare in advance.
+Best regards,
+Ina</t>
+  </si>
+  <si>
+    <t>Hi Jeff,
+Thanks for forwarding this along. It's fascinating to see the impact the Internet economy is having on power demand and infrastructure. The growth in server farms and data centers is certainly something to keep an eye on, especially with the challenges it presents to utility companies. Let's discuss how we might need to adjust our strategies in light of these developments.
+Best regards,
+Phillip</t>
+  </si>
+  <si>
+    <t>Hi Phillip K Allen,
+I hope this message finds you well. I will gather Tori K.'s and Martin Cuilla's resumes and past performance reviews from H.R. and send them over to you shortly.
+Please let me know if there's anything else you need.
+Best regards,
+Ina</t>
+  </si>
+  <si>
+    <t>Could you please provide more context or specify which resumes you are referring to? Thank you!</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Thank you for sending over the spreadsheet with the September Socal trades. I'll review the details and get back to you if I have any questions.
+Best regards,  
+Mark</t>
+  </si>
+  <si>
+    <t>Hi Matt Motley,
+Thank you for sharing the document on price caps. I'll review it and get back to you if I have any questions or comments.
+Best regards,
+Phillip K Allen</t>
+  </si>
+  <si>
+    <t>Hi Richard,
+Thank you for reaching out. I will review the California Gas Report and compare the production numbers for california with the figures provided. I'll get back to you with my findings shortly.
+Best regards,
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Sure, I can help with that. I will grant Jay Reitmeyer access to the new west power site shortly.
+Best regards,
+Cooper</t>
+  </si>
+  <si>
+    <t>Hi Christi L. Smith,
+Thank you for your email and for outlining the requirements for the Team Selection form. I apologize for any inconvenience caused by the incomplete submission.
+I will ensure that the complete Excel spreadsheet with the necessary email addresses and phone numbers is sent to you as soon as possible. If there are any issues with the spreadsheet, I will provide the information via email.
+Thank you for your patience and understanding.
+Best regards,
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Hello John Lavorato-M,
+Thank you for reaching out. Could you please provide more details or clarify the purpose of your email? I want to ensure I address your needs accurately.
+Looking forward to your response.
+Best regards,
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Thank you for sending over the spreadsheet with the September Socal trades. I'll review the details and get back to you if I have any questions.
+Best regards,
+Mark</t>
+  </si>
+  <si>
+    <t>Hi Keith,
+Thanks for the well wishes! Yes, I'm in the process of setting up a studio at apartment. It's been a fun project, and I'm excited to see how it turns out.
+Glad to hear the kids are back in school and things are going well on your end. Let's catch up soon!
+Best,
+Greg</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Yes, I was able to log in to enron online and find socal today. Thank you for your assistance. I look forward to receiving the list of physical deals for yesterday and today.
+Best regards,
+Mark</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Sure, my address in College Station is [Your Address Here].
+Best regards,
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Thank you for the update. Please let me know if there are any further details or actions required on my part.
+Best regards,  
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Hi Phillip Allen,
+Thank you for providing the guest access details and instructions. I appreciate your help in setting up the composite page for me. I will follow the steps to log in and install Shockwave. If I encounter any issues, I will reach out to you or Kathy Moore at the HelpDesk.
+Thanks again for your assistance.
+Best regards,  
+Mark</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Thank you for sending over the spreadsheet and the detailed observations. I appreciate the insights into the basis market and the trading premiums at Socal Gas Daily Swaps. I'll review the data and reach out if I have any questions.
+Best regards,  
+Mark</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Thank you for the update. I have received the updated numbers from Keith Holst. Please let me know if there's anything else you need from my side.
+Best regards,
+Alan</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Thank you for reaching out. I will email you the plan prior to our meeting. Besides headcount, there is nothing else you need to provide at this moment. 
+Looking forward to our meeting next week. Please let me know if you have any other questions.
+Best regards,
+Suzanne</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Sure, I'll add Mike Grigsby to the distribution list.
+Regarding Patti, I haven't heard any recent updates, but I'll check in and let you know how they're doing.
+Best,
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Thank you for bringing this to my attention. I agree with your assessment regarding Tori Kuykendall and Martin Cuilla. Promoting them to commercial manager seems like a logical step given their current responsibilities and performance. I will review the details and ensure everything is in order for their promotions. If any issues arise, I will reach out to you promptly.
+Best regards,  
+Brad</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Sure, I can stop by and help set up your Reuters. Please let me know a convenient time for you, and I'll make sure to be there.
+Best,
+Bruce</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Thank you for the update on the rent roll spreadsheet. I'll make the necessary modifications as you outlined:
+1. I'll add the formula in column E to sum the values from columns C and D, and then copy it down the rows.
+2. I'll insert the formula in column H to calculate the difference between the amount owed and the amount paid.
+3. I'll adjust the width of column F to ensure the values are visible.
+4. Once the rent section is updated, I'll move the database columns to the right, starting from column J.
+Please let me know if there's anything else you'd like me to address.
+Best regards,  
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Thank you for your email. I'm ready to collaborate and get this done today. Please let me know how you'd like to proceed or if there's anything specific you need from me.
+Best,
+Lucy</t>
+  </si>
+  <si>
+    <t>Thank you for your prompt response and approval. I appreciate your support and will proceed accordingly. If there are any further steps or details you need from me, please let me know.
+Best regards,</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Thank you for your email. I've been making good progress on the spreadsheets and will ensure to close the files before attaching them to an email. I'll aim to have them ready for you soon, as I understand the importance of the timeline.
+Looking forward to our discussion later.
+Best regards,
+Lucy</t>
+  </si>
+  <si>
+    <t>Hi [Person Name_2],
+Thank you for sending the file. I will input the rents and names due for this week and email it back to you shortly.
+Best regards,
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Hi [Name],
+Thank you for the email. I will open the "utility" spreadsheet and work on completing the analysis to determine whether it's better to be a small commercial or a medium commercial (LP-1). I'll gather the usage data for the last 12 months and use the rates provided in the spreadsheet to make the comparison. I appreciate the opportunity to practice my Excel skills and will get back to you with my findings soon.
+Best regards,
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Hi Alan Comnes,
+Thank you for forwarding the request. I will update the table and ensure it reflects the necessary changes. I'll also work on the forward price curve for both gas and power in CA. You can expect to receive all the documents by Monday afternoon.
+Please let me know if there's anything else you need.
+Best regards,
+Phillip</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Thank you for sharing your observations and calculations. I will review the numbers and provide my thoughts on the valuation and potential risks. I'll also prepare and send you the reports on Calpine, Tosco, and SLB as soon as possible.
+Best regards,
+Mac</t>
+  </si>
+  <si>
+    <t>Hi Lucy,
+Thank you for the update. It sounds like you've had a busy day managing the apartments. I appreciate you addressing the issues with the tenants and keeping me informed. Let's discuss this further when you call tomorrow.
+Take care,
+Phillip</t>
+  </si>
+  <si>
+    <t>Hi Lucy,
+Thank you for sending over the daily report. I appreciate the detailed breakdown of the expenses. If there are any further updates or if you need anything from my end, please let me know.
+Best regards,
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Hi Lucy,
+Thank you for the update. I understand how days like that can be quite hectic. I'll make sure to mention to Wade about fixing his van. Looking forward to your email tomorrow.
+Best regards,  
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Thanks for reaching out. It sounds like you have a solid plan in place with your current exercise strategy. Regarding selling JDSU and buying SDLI, it could be a good move depending on the market conditions and your investment goals. I would recommend analyzing the financials and growth potential of both organizations to make an informed decision.
+As for EOG, it could indeed be a promising play on rising oil and gas prices. I’ll take a closer look at their recent performance and market position and get back to you with more detailed insights.
+Let me know if there’s anything else you need in the meantime.
+Best,
+[Your Name]</t>
+  </si>
+  <si>
+    <t>gemma3:27b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subject: Re: Business Trip &amp; Meetings
+Thanks for your thoughts – I appreciate the honest feedback. You raise some really good points about separating work and leisure, and I agree it’s worth considering whether a dedicated trip is the best approach right now. I’ll definitely get a feel for whether the team even *wants* a trip, and if so, what they’d prefer.
+I also like your idea about shifting the meeting format to a roundtable discussion. That would definitely encourage more participation and hopefully lead to more productive conversations about what’s working and what isn’t. 
+Austin sounds fantastic, and keeping it closer to home makes a lot of sense to minimize travel time. Golf and watersports would be a great way to unwind!
+I’ll take all of this into consideration as I plan things out. Thanks again for your input.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Great news! Thanks for letting me know - that's fantastic to hear! 🎉</t>
+  </si>
+  <si>
+    <t>Subject: Re: Scheduling Group Salary &amp; Level Schedule
+Hi Phillip,
+Certainly. I'm compiling the salary and level schedule for the scheduling group now. It will include details for everyone, including Patti S. 
+I'll also include my thoughts on any potential adjustments needed. I anticipate having this to you by [Date/Time - e.g., end of day tomorrow, 10 AM on Thursday].
+Let me know if you have any specific areas you'd like me to focus on while I'm putting this together.
+Thanks,
+Randy</t>
+  </si>
+  <si>
+    <t>Sounds good! Tuesday at 11:45 works for me. 
+See you then,</t>
+  </si>
+  <si>
+    <t>Subject: Re: Distribution List - Updates
+Okay, will do. I will be sure to include Phillip Allen, Mike Grigsby, Keith Holst, Monique Sanchez, Frank Ermis, and John Lavorato on all updates moving forward.
+Thanks,
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Subject: Re: Availability
+Okay, any morning between 10:00 and 11:30 works for me. Please let me know which day/time you'd prefer and I'll confirm.</t>
+  </si>
+  <si>
+    <t>Subject: Re: Network Information
+Thanks for sending this over. I've recorded the login details and network configuration. Let me know if anything changes.</t>
+  </si>
+  <si>
+    <t>Subject: Re: Westgate Proforma-Phillip Allen.xls
+George,
+Thanks so much for sending this over – the proforma looks very promising. I appreciate you taking the time to put it together.
+I'll review the package you're sending via Airborne Express and will get back to you early next week to schedule a site visit. I'm available most days, so please let me know what works best on your end.
+I'm very sorry to hear about the issues with the townhomes and your wife’s health – that sounds incredibly stressful. I’m glad to hear she’s expected to recover.
+Looking forward to discussing this further.
+Best regards,
+Phillip Allen</t>
+  </si>
+  <si>
+    <t>Phillip,
+Thank you for forwarding my request and providing Zarin Imam's contact information. I will reach out to her directly.
+Sincerely,
+Mr. Buckner</t>
+  </si>
+  <si>
+    <t>Subject: Re: Consolidated positions: Issues &amp; To Do list
+Phillip,
+Thanks for forwarding this chain. I agree with Richard's assessment – focusing on a defined layout for the consolidated position screen on Monday is a critical next step. 
+I'll be available between 3-5 on Monday to contribute to that effort. Please let me know if there's anything I can do to prepare beforehand.
+Thanks,
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Thanks for sending this over. Good to know the breakdown of the West Desk members. I appreciate you letting me know about the origination side being sparse – that’s helpful context.
+Let me know if there’s anything else I can help with.
+Best,
+Dave</t>
+  </si>
+  <si>
+    <t>Okay, great. 
+Thanks, Phillip.</t>
+  </si>
+  <si>
+    <t>Subject: Re: Var, Reporting and Resources Meeting
+Rain,
+Thanks for the invite. I will be there.
+Best,
+Phillip</t>
+  </si>
+  <si>
+    <t>Phillip,
+Will look into Mike Grigsby’s access to West Power and reset his password if needed. I’ll let you know when it’s resolved.
+Thanks,
+Tim</t>
+  </si>
+  <si>
+    <t>Subject: Re: Westgate
+George,
+Thanks for forwarding this information – both the Westgate and San Marcos details are helpful.
+We are definitely interested in learning more about both projects. Could you please send over any additional information you have on the equity requirements for both, particularly the San Marcos project? 
+We'll review the demographics and get back to you shortly with our initial thoughts on interest level.
+Thanks,
+Phillip</t>
+  </si>
+  <si>
+    <t>Subject: Re: Meeting re: Storage Strategies in the West
+Thanks Nancy,
+Will do.
+Regards,
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Thanks for letting me know. I haven't cashed the second check yet, so I'll use that for October's payment. 
+Thanks!
+Brenda</t>
+  </si>
+  <si>
+    <t>Okay, good to know! Thanks for the update. Let me know if anything changes on your end.</t>
+  </si>
+  <si>
+    <t>Subject: Re: El Paso San Juan Monthly Index - Potential Manipulation
+Phillip,
+Thank you for bringing this to my attention and for providing such a detailed analysis of the trades. I appreciate you proactively flagging this potential manipulation of the El Paso San Juan monthly index.
+I will carefully review the attached spreadsheet and supporting data, paying close attention to the trades executed on September 26th and 27th, and the counterparty information. I will also focus on the discrepancies between physical and financial trades, as well as the spread relationships you highlighted.
+I understand the importance of reliable and accurate indices for both physical and financial business, and I will do my best to ensure the index calculation reflects a fair market value. 
+I will keep you updated on my findings. Please don't hesitate to reach out if you have any further information or insights.
+Best regards,
+Liane</t>
+  </si>
+  <si>
+    <t>Phillip,
+Thank you for providing this detailed information and analysis regarding the potential manipulation of the El Paso San Juan monthly index. I appreciate you proactively bringing this to my attention and providing the supporting documentation.
+I will carefully review the attached spreadsheet and summaries, paying close attention to the identified outliers and the discrepancies between physical and financial trades, as well as the spread relationships. I will also look for the counterparty names to confirm your findings regarding the single buyer in the $4.70s.
+My goal is to ensure the accuracy and reliability of the index, and your insights are extremely helpful in that process. I will keep you updated on my findings and any actions taken. 
+Please don’t hesitate to reach out if you have any further information or concerns.
+Sincerely,
+Liane</t>
+  </si>
+  <si>
+    <t>Okay, here's a breakdown of the email from George Richards, summarizing the key points and categorizing the information. This is a *long* email, so this aims to be comprehensive.
+**Overall Purpose:**
+This email is a detailed response to investor questions (likely Keith and the recipient of the email) regarding the financial and operational structure of a real estate development project being undertaken by Creekside Builders, LLC. It's designed to build trust and transparency, addressing concerns about finances, procedures, and control.
+**I. Financial Structure &amp; Loan Types**
+*   **Limited Partnership:** The project will likely be structured as a limited partnership, with George Richards/Creekside Builders as the General Partner and the investors as Limited Partners.
+*   **Loan Types:**
+    *   **Spec Loans (70-75% LTV):**  For initial construction *before* any units are pre-sold.  Higher risk, lower loan amount.
+    *   **Pre-Sold Unit Loans (Builder/Developer Name - 80-95% LTV):** Loans secured against pre-sold units, but remain in the builder's name.  Lower risk, higher loan amount.
+    *   **Pre-Sold Unit Loans (Buyer Name):**  George *doesn't* want to use these, as they are too difficult to manage.
+*   **Phased Development:**  The project will be built in phases.  This allows for financing to be secured incrementally and reduces overall risk.  A detailed example is given for a 40-unit project, showing how phasing can reduce the equity required.
+*   **Disbursement of Funds:** The General Partner (Creekside Builders) controls disbursements, prioritizing:
+    *   Current/Near-Term Third-Party Costs
+    *   Necessary Reserves
+    *   Priority Payments
+    *   Distributions to Partners (investors)
+**II. Fees &amp; Compensation**
+*   **Construction Management Fee:** Creekside Builders will receive a 15% fee on the *direct hard costs* (excluding land, financing, and sales costs) for construction management and overhead.
+*   **No Hidden Fees:**  George emphasizes that this is the *only* compensation to himself, Larry Lewter, or Creekside Builders *before* profit is calculated, except for:
+    *   Reimbursement of Partnership Expenses
+    *   Direct Payment to Creekside Builders for Subcontractor Costs (if CB performs the work directly due to market conditions)
+*   **Equipment Rental:** If Creekside Builders uses its own equipment, it will charge a rental fee.
+**III. Operational Procedures**
+*   **Subcontractor/Vendor Selection:**
+    *   Due to the tight labor market, obtaining three bids is not feasible.
+    *   Creekside Builders will primarily use subcontractors and vendors with whom they have established relationships.
+    *   Vendors will be constantly shopped for best pricing.
+*   **Pre-Selected Professionals:** A list of pre-identified subcontractors, vendors, and professionals is available upon request.
+*   **Investor Input:** Investors are welcome to provide input on design and materials, with George stating he usually reaches consensus.
+*   **Reporting:** George is willing to provide expense tracking reports and prefers an internet-based reporting system.
+*   **Bookkeeping:** He requests clarification on the investor's question regarding bookkeeping procedures.
+**IV. Key Takeaways &amp; Reassurances**
+*   **Transparency:** George is attempting to be very open about the financial structure and operational procedures.
+*   **Risk Mitigation:** Phased development and careful loan structuring are intended to minimize risk.
+*   **Investor Involvement:** Investors are encouraged to participate and provide input.
+*   **Control:** Creekside Builders (as the General Partner) has significant control over the project, but is willing to be accountable to the investors.
+**In essence, this email is a detailed attempt to build trust and demonstrate a well-thought-out plan for the real estate development project.** It's a lot of information, but it's designed to address potential investor concerns and establish a clear understanding of the financial and operational aspects of the venture.</t>
+  </si>
+  <si>
+    <t>Okay, here's a breakdown of the email from George Richards, summarizing the key points and categorizing the information. This is a *long* email, so this will be detailed.  I'll also add some observations about the tone and potential implications.
+**Overall Summary:**
+This email is a comprehensive response to investor questions regarding the financial structure, operational procedures, and reporting mechanisms for a real estate development project (likely a residential subdivision). George Richards is proactively addressing concerns and providing detailed explanations to build trust and transparency.  It's a very detailed and somewhat defensive explanation of how the project will be managed.
+**I. Financial Structure &amp; Loan Types**
+*   **Limited Partnership:** The structure implies a limited partnership where George Richards (and likely Larry Lewter) are the General Partners (managing the project) and the recipient(s) of this email are Limited Partners (investors).
+*   **Loan Types:**
+    *   **Spec Loans (70-75% LTV):**  Loans taken out *before* any units are pre-sold.  Higher risk, requiring more equity.
+    *   **Pre-Sold Unit Loans (Builder/Developer Name):** Loans for units that *have* been pre-sold, but the loan remains in the developer's name.  (80-95% LTV)
+    *   **Pre-Sold Unit Loans (Buyer Name):** Loans where the buyer directly obtains the construction loan. George Richards *doesn't* want to deal with these, as they are too difficult to manage.
+*   **Phasing &amp; Loan Value Example:**  A detailed example is given of how phasing the project (building in stages) can affect loan values and equity requirements.  The example shows a potential equity requirement of $241,000 for a specific phase.
+*   **Disbursements:** The General Partner (George Richards) controls disbursements, prioritizing third-party costs, reserves, payments, and then distributions to partners.
+**II. Operational Procedures**
+*   **Construction Management Fee:** Creekside Builders, LLC (CB, owned by George Richards) will act as the construction manager and receive a 15% fee on direct hard costs (excluding land, financing, and sales). This is the primary way George Richards and Larry Lewter will be compensated.
+*   **Subcontractor/Vendor Selection:**
+    *   Due to the tight labor market, obtaining three bids for each trade is not feasible.
+    *   They will rely on established relationships with reliable subcontractors and vendors.
+    *   Constant shopping for vendors will occur to ensure competitive pricing.
+*   **Equipment Usage:** CB will charge a fee for the use of any equipment it owns, if used on the project. They are considering purchasing a sky track.
+*   **Dealing with Subs:** The procedures for dealing with subcontractors, vendors, and professionals are not overly formal.
+**III. Reporting &amp; Bookkeeping**
+*   **Reporting:**  They are willing to provide reports tracking expenses vs. plan and prefer an internet-based reporting system.
+*   **Bookkeeping:**  The email requests clarification on what the investor means by "bookkeeping procedures."
+*   **Investor Input:** They are open to investor input on design and materials, with the understanding that the General Partner will have final say.
+**IV. Compensation &amp; Transparency**
+*   **Limited Fees to George Richards/Larry Lewter:** The only direct compensation to George Richards and Larry Lewter before profit calculation is the 15% construction management fee and reimbursement for partnership expenses.
+*   **Transparency on Subcontractor Costs:**  If CB has to perform work directly (e.g., due to a lack of qualified subcontractors), they will disclose the costs and fees to the partnership.
+**Observations &amp; Potential Implications:**
+*   **Defensive Tone:** The level of detail and justification in the email suggests a degree of defensiveness. George Richards is anticipating potential investor concerns and proactively addressing them.  He's trying to preemptively justify his compensation and operational choices.
+*   **Emphasis on Control:** George Richards maintains significant control over finances, construction management, and decision-making. This is typical for a General Partner, but the email emphasizes it repeatedly.
+*   **Limited Formal Processes:** The lack of formal bidding processes and the reliance on established relationships could be a red flag for some investors. It suggests a potential lack of objectivity and could lead to higher costs.
+*   **Compensation Structure:** The 15% construction management fee is significant. Investors will need to carefully evaluate whether this fee is justified by the value of the services provided.
+*   **Transparency Concerns:** While George Richards claims transparency, the level of detail provided in the email is overwhelming. Investors will need to actively request and review detailed financial reports to ensure they are fully informed.
+*   **Winmail.dat:** The presence of a winmail.dat file suggests the email was sent using Microsoft Outlook and may contain attachments or formatting that are not displayed in plain text.
+**In conclusion:**
+This email is a detailed attempt to build trust and transparency with investors. However, the defensive tone and emphasis on control suggest that investors should carefully scrutinize the financial structure, operational procedures, and compensation arrangements before committing any capital.  Due diligence is crucial.</t>
+  </si>
+  <si>
+    <t>Okay, got it. Thanks for the update on the Gas Trading Vision meeting – 4:00 PM Wednesday in room 2601 works for me. Appreciate you letting us know about the scheduling conflict and re-sending the confirmation.</t>
+  </si>
+  <si>
+    <t>Phillip,
+Thanks for the update – that’s great news regarding the unit mix and building reduction. I’m glad to hear Kipp is moving forward with the drawings. 
+Please do send those over when they’re ready, and we’ll get a revised bid back to you promptly. We appreciate you recognizing our local strength and look forward to potentially partnering with you on this project.
+Best,
+Reagan</t>
+  </si>
+  <si>
+    <t>Subject: Re: Nymex expiration - Reschedule Request
+Okay, understood. I will reschedule. Could you please let me know what times/dates work best for you?</t>
+  </si>
+  <si>
+    <t>Subject: Re: Invitation
+Thanks, Cindy. I will be there.
+Best,
+Phillip Allen</t>
+  </si>
+  <si>
+    <t>Subject: Re: Gas Physical/Financial Position
+Thanks, Cindy. I've noted the meeting on my calendar.
+Best,
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Brenda,
+Thanks for your detailed email and raising these important points. You're right to question the agreement – it *is* surprisingly vague, and I understand your concerns about its enforceability and whether it's truly needed for closing.
+I've been reviewing everything as well, and I agree it doesn't have the teeth we'd typically expect for a closing document. I'm checking with our legal team to get their opinion on this and will let you know what they say ASAP. 
+Let's hold off on signatures until we have a clearer understanding. I appreciate you flagging this – it's better to address it now than to have issues down the line.
+I'll be in touch shortly with an update.
+Jeff</t>
+  </si>
+  <si>
+    <t>Phillip,
+Good to hear from you. We're still progressing with PG&amp;E – the latest is that we've finalized the draft agreement on points A &amp; B, and are currently reviewing their feedback on section C regarding the timeline. 
+I'll give you a call shortly to discuss further.
+Chris.</t>
+  </si>
+  <si>
+    <t>Subject: Re: Invitation
+Thanks for the invite. I will be there.
+Best,
+Phillip Allen</t>
+  </si>
+  <si>
+    <t>Hi Keith,
+Thanks so much for the birthday wishes!
+My number is [Your Phone Number]. 
+Looking forward to chatting with you.
+Best,
+Greg</t>
+  </si>
+  <si>
+    <t>Mike,
+Phillip has asked me to pass along the guest password for Gas Daily to you at 37031 so you can share it with the user today.
+Phillip will be out of the office on Friday.
+Thanks,
+Kathy</t>
+  </si>
+  <si>
+    <t>Phillip,
+Thanks for the update. Just to confirm, this means Denver is exposed to 15,000/d in 2003 and 25,000/d in 2004 &amp; 2005 due to the Trailblazer transport being unhedged?
+Let me know if I've understood correctly. Also, please keep me informed on the Hubert deal booking.
+Thanks,
+John</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Yes, we will have a call this week to discuss California regulatory issues. I'm scheduling it for Wednesday at 10:00 AM PST. 
+I've included the gas desk on the invite. You should receive a calendar invite shortly.
+Let me know if that time doesn't work.
+Thanks,
+Jim</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Thanks for sending over these detailed questions – they’re definitely not basic, and I appreciate you wanting to fully understand the Westgate project. I’m happy to provide clarity. 
+Let me break down the answers as thoroughly as possible. It’s a lot to cover, so I’ll organize it by your headings:
+**Ownership Structure**
+*   The ownership structure will be a Limited Partnership. We will be the General Partner, and investors will be Limited Partners.
+*   The legal entities involved are [Name of LP Entity] as the primary investment vehicle, and [Name of Land Holding Entity] which currently holds the land. We will also establish a separate entity for construction/borrowing, [Name of Construction Entity]. The LP will invest in the Construction Entity. This structure helps delineate ownership, liabilities, and facilitates financing.
+*   The land is currently owned by [Name of Land Holding Entity]. Improvements will be owned by the Construction Entity.
+*   Currently, [Bank Name] holds the existing loan on the land. We anticipate securing construction financing from [Potential Lender Names].
+*   Yes, the land *is* collateral for the existing loan.
+**Investment**
+*   Initial investment will be used to secure the remaining land purchase and to begin the pre-construction phase (permitting, final design). It will also serve as equity injection for the construction loan.
+*   A portion will be used for the final land purchase in cash, and the remainder will be used to secure the construction loan, increasing our leverage and potential returns.
+*   The land cost is spread out on the cash flow statement to reflect the actual disbursement schedule for the final payment, as well as associated legal and transfer fees.
+*   The $700,000 is needed now, with approximately $ [Amount] due immediately for the final land closing and the remainder held for initial pre-construction costs and as equity for the construction loan. A detailed investment schedule will be provided separately.
+**Investment Return**
+*   Yes, Equity Repayment represents the return of your original investment.
+*   The plan is to distribute profits as units are sold and closed, rather than waiting until the very last one. We will provide a projected distribution schedule based on anticipated sales velocity.
+**Debt**
+*   The Construction Entity will be the borrower for the construction loan. Recourse will be limited to the assets of the Construction Entity. Collateral will be the land and improvements. We are also exploring options for personal guarantees, which we will discuss further.
+*   Currently, we anticipate two loans: the existing land loan and the construction loan.
+**Improvement/Construction**
+*   Terms of each loan are still being finalized, but we anticipate a [Interest Rate]% interest rate on the construction loan with a [Loan Term] term.
+*   Disbursements will be made by the Construction Entity, with oversight from the General Partner. Funds will be held in a dedicated project bank account at [Bank Name]. We will implement controls on maximum disbursements and provide investors with online access to view transaction history.
+*   We will provide monthly reports tracking expenses versus the plan, as well as detailed bookkeeping procedures.
+**Creekside Builders**
+*   Creekside Builders is our affiliated construction company. We will be paid a standard general contractor fee (approximately [Percentage]%) of the total construction cost. Any profit sharing will be based on overall project profitability, after all expenses and fees are paid.
+*   Neither I nor Larry will receive any salary or personal expenses charged to the project before the ultimate payout of profits.
+**Design and Construction**
+*   We anticipate design completion by [Date].
+*   We value investor input and will solicit feedback on key design elements and materials.
+*   Investors will have the opportunity to participate in regular project updates and provide feedback during the planning and permitting phases.
+*   Creekside Builders has established procedures for dealing with subcontractors, vendors, and other professionals, including obtaining multiple bids, negotiating payment schedules, and conducting reference checks.
+*   We have preliminary relationships with several qualified subcontractors and vendors, including [Company Names].
+I hope this addresses your questions thoroughly. I’m happy to schedule a call to discuss any of these points in more detail. 
+Best regards,
+George</t>
+  </si>
+  <si>
+    <t>Subject: Re: Westgate Proforma-Phillip Allen.xls
+George,
+Thanks so much for sending over the proforma and information on the Westgate property. It looks very promising, and I appreciate you thinking of me for this opportunity.
+I'll review the package you're sending via Airborne Express as soon as it arrives and will get back to you early next week to discuss a site visit. I'm particularly interested in discussing the potential for a 1031 exchange as well.
+I'm very sorry to hear about the issues you've been dealing with – both the storm damage and your wife’s health. I hope she’s feeling better and on the road to recovery.
+Best regards,
+Phillip Allen</t>
+  </si>
+  <si>
+    <t>Phillip,
+Thanks for sending over the Reagan sales data. I appreciate you taking the time to analyze it and share your thoughts on the pricing. 
+I understand your concern about being .70/sf higher than Reagan’s units, especially with competition looming. I’m happy to discuss this further and explore potential adjustments, but I also want to highlight the unique value proposition of our units and the current market demand.
+Let’s connect soon to discuss this in more detail. I’m also interested in hearing your thoughts on Cherry Creek and will await your follow-up. Thanks for the update on De Ville as well.
+Best,
+George</t>
+  </si>
+  <si>
+    <t>Phillip,
+Not sure what you mean by "Burnet." Could you please clarify? Are you referring to a project, a person, or something else? 
+Thanks,
+Jeff</t>
+  </si>
+  <si>
+    <t>Phillip,
+I've located the Burnet site plan and will forward it to you immediately. I understand the need for Brenda Key Stone’s approval regarding the subdivision, and I’ll make sure she receives the plan promptly. 
+I'm also working on getting the closing statements compiled and will send them over to you as soon as they are ready – likely by [insert timeframe, e.g., end of day, tomorrow morning].
+Let me know if you have any other questions.
+Jeff</t>
+  </si>
+  <si>
+    <t>Subject: Re: Rent Roll
+Hi [Sender Name],
+I received the fax and will get started on updating the rent roll right away. Let me know if you prefer I fill it in digitally or if handwritten notes are best for you to input. 
+I'll prioritize getting this back to you as soon as possible.
+Thanks,
+Lucy</t>
+  </si>
+  <si>
+    <t>Phillip,
+Thank you for checking on the payment and for resending the check. That’s very helpful, and the arrangement regarding the second check for October works perfectly.
+I appreciate you addressing my concerns about the site plan and will await your approval before any further action is taken. 
+Thank you also for locating the amortization schedule – I look forward to receiving it soon.
+Brenda</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Thanks for the financial summary and questions regarding the August bank statement. I'm happy to help clarify these items.
+I'm currently gathering the supporting documentation for each check and overtime payment you mentioned. I'll review the details for:
+*   Check 1406 (Walmart) - Description and unit
+*   Check 1410 (Crumps) - Detail description and unit
+*   Check 1411 (Lucy) - Explanation of this payment
+*   Check 1415 (Papes) - Detail description and units
+*   Checks 1416, 1417, and 1425 - Justification for overtime
+*   Check 1428 (Ralph's) - Unit associated with this payment
+*   Check 1438 (Walmart) - Description and unit
+I'll compile all the information and get back to you as soon as possible, hopefully by [Suggest a timeframe - e.g., end of day tomorrow, or within 24 hours].
+Thanks,
+Lucy</t>
+  </si>
+  <si>
+    <t>Subject: Re: Contact list for mid market
+Mike,
+Thanks for sending this over. We'll get right on filling in the highlighted columns. Appreciate you coordinating to avoid overlap.
+Let me know if you need anything from our side.
+Thanks,
+Phillip</t>
+  </si>
+  <si>
+    <t>Subject: Re: HearMe Link
+Hi,
+Thanks for sending the HearMe link. I'll take a look.
+Best,
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Subject: Re: 2- SURVEY - PHILLIP ALLEN
+Ina,
+Thanks for compiling this information. Everything looks correct as submitted.
+Let me know if you need anything further from me.
+Phillip Allen</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Sounds good about Friday evening.
+I’ll research the Chelsea Villa transaction history and get back to you with that information next week. 
+Regarding the Burnet deal site plans, I'll get those over to you ASAP and will keep Brenda's concerns top of mind.
+Let me know if anything else comes up before Friday.
+Thanks,
+Jeff</t>
+  </si>
+  <si>
+    <t>Subject: Re: Benchmark Report - San Juan &amp; Socal Adjustments
+Thanks for the clarification. It's helpful to understand the impact of the transport position rolls on the San Juan and Socal numbers. 
+Appreciate the detail on the pre-adjustment activity as well.</t>
+  </si>
+  <si>
+    <t>Subject: Re: AECO Basis &amp; Correlation Questions
+Hi,
+Thanks for reaching out. Let's address your questions regarding AECO basis and correlation.
+Regarding the AECO basis being lower on the list, this is likely due to [briefly explain reason - e.g., current market conditions, specific pipeline constraints, or data source limitations]. We are continually monitoring this and investigating any discrepancies.
+You are correct to ask about NWPL mapping. NWPL *is* mapped differently than AECO, accounting for [explain the key difference - e.g., transportation costs, delivery points, or contractual obligations]. This impacts the basis calculation.
+Regarding AECO's correlation to Nymex, we are currently seeing a correlation of [state current correlation - e.g., 0.95], but this can fluctuate based on [mention factors influencing correlation - e.g., weather patterns, storage levels, or regional demand]. We have a detailed report available on this, which I can share if you'd like.
+Please let me know if you'd like me to elaborate on any of these points or if you have further questions.
+Best regards,
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Phillip,
+I apologize if my request for compensation caused any confusion. To clarify, I operate as a broker and typically receive commission on completed deals, as we discussed regarding Sagewood. My inquiry about potential projects with Creekside was simply to understand the scope of our future collaboration and ensure clear expectations regarding compensation for work beyond standard brokerage. 
+Regarding Sagewood, I understand your current offer of 2.7. I'm happy to discuss this further and explore a mutually agreeable price.
+Jeff</t>
+  </si>
+  <si>
+    <t>George,
+Thanks for the detailed information regarding Sagewood Town Homes and the comparison to Regan Lehman’s units. The price per square foot analysis is helpful, and I appreciate you highlighting the importance of rental rates and rentability – particularly the preference for the 3-bedroom, 3.5 bath layout. 
+I’ve reviewed the rental and cost data you previously provided and will factor it into our evaluation. I look forward to discussing this further on our call today.
+Best regards,
+Phillip Allen</t>
+  </si>
+  <si>
+    <t>Subject: Re: Westgate Proforma-Phillip Allen.xls
+George,
+Thanks so much for sending over the proforma and information on the Westgate property. It looks very promising, and I appreciate you thinking of me for this opportunity.
+I'll review the package you're sending via Airborne Express as soon as it arrives and will get back to you early next week to discuss a site visit. I'm particularly interested in exploring the potential for a 1031 exchange as well.
+I'm very sorry to hear about the issues you've been dealing with – both the storm damage and your wife’s health. I hope she’s feeling better and on the road to recovery. 
+Best regards,
+Phillip Allen</t>
+  </si>
+  <si>
+    <t>Received and reviewing the attached utility files. Thanks, Lucy.
+Phillip Allen</t>
+  </si>
+  <si>
+    <t>Subject: Re: TIME SENSITIVE: Executive Impact &amp; Influence Program Survey
+Thanks for sending this over. I will complete the assessments by the deadline of September 14th.
+Let me know if there's anything else I can do.</t>
+  </si>
+  <si>
+    <t>Phillip,
+Thanks for the update on the Sagewood townhomes and the additional duplexes by Reagan Lehmann. That’s good information to have.
+Regarding the differences between his units and ours, there are a few key distinctions. Our townhomes feature [mention 2-3 key differences - e.g., larger square footage, upgraded finishes, different amenities, better location within the development]. These factors contribute to the price difference. While the 1308 floor plan is similar in concept, our units offer [mention specific upgrades or features of your units compared to the 1308 plan].
+I understand your point about the $2 million sale and appreciate you sharing that data. We believe our $2.7 million bid reflects the superior quality and features of our townhomes, as well as the current market value.
+I’m glad to hear you’re still interested in investing in a new project. Let’s schedule a call next week to discuss that further. Are you available [suggest 2-3 times]?
+Thanks again,
+Larry</t>
+  </si>
+  <si>
+    <t>Okay, here's a breakdown of the email content, extracting the list of names and categorizing them.  This is a *long* list, so I've tried to be as accurate as possible.  I've also included notes about potential errors or ambiguities.
+**Important Notes:**
+*   **Format:** The email is poorly formatted, making it difficult to parse names perfectly. I've done my best to separate them.
+*   **Domain/Affiliation:**  I've included the domain/affiliation (e.g., `@enron.com`, `@enronXgate`, `@MGUSA`) where available. This helps to categorize the individuals.
+*   **Potential Errors:** There's a chance some names are incomplete or incorrectly parsed due to the email's formatting.
+*   **Duplicates:** I've tried to remove obvious duplicates, but it's possible some remain.
+**List of Names (Categorized):**
+**1. Enron Employees (@enron.com):**
+*   John Doe (used as example in instructions)
+*   Jeanne Collins
+*   Cynthia Franklin
+*   Alvin Thompson
+*   Steve Gillespie
+*   Camille Gerard
+*   Tamara Carter
+*   Tracy Wood
+*   Lia Halstead
+*   Suzanne Calcagno
+*   Shanna Boudreaux
+*   Kelly Loocke
+*   Mary Theresa Franklin
+*   Jesse Villarreal
+*   Joan Collins
+*   Joe A Casas
+*   Robert Allwein
+*   Scott Loving
+*   Gabriel Fuzat
+*   Jack Netek
+*   Lam Nguyen
+**2. EnronXgate Affiliation (@enronXgate):**
+*   Kelly Loocke
+*   Shanna Boudreaux
+**3. MGUSA Affiliation (@MGUSA):**
+*   Jessica Hangach
+*   Kathy Gagel
+*   Lisa Goulart
+*   Ruth Balladares
+*   Sid Strutt
+**4. Enron Communications (@Enron Communications):**
+*   Gabriel Fuzat
+*   Jack Netek
+**5.  HOU/EES (@EES):**
+*   Joan Collins
+**6.  NYC/MGUSA (@MGUSA):**
+*   Jessica Hangach
+*   Kathy Gagel
+*   Lisa Goulart
+*   Ruth Balladares
+*   Sid Strutt
+**7.  Other/Unclear Affiliation (Listed as they appear in the email):**
+*   Craig Taylor (HOU/ECT)
+*   Meredith Homco (HOU/ECT)
+*   Natalie Baker (HOU/ECT)
+*   Jesse Villarreal (HOU/ECT)
+*   Mike Potter (NA/Enron)
+*   Mary Theresa Franklin (HOU/ECT)
+*   Robert Allwein (HOU/ECT)
+*   Natalie Baker (HOU/ECT)
+*   Suzanne Calcagno (NA/Enron)
+*   Cynthia Franklin (Corp/Enron)
+*   Joe A Casas (HOU/ECT)
+*   Kelly Loocke (ENRON)
+*   Shanna Boudreaux (ENRON)
+*   Meredith Homco (HOU/ECT)
+*   Scott Loving (NA/Enron)
+*   Tamara Carter (NA/Enron)
+*   Tracy Wood (NA/Enron)
+*   Lia Halstead (NA/Enron)
+*   Suzanne Calcagno (NA/Enron)
+*   Gabriel Fuzat (Enron Communications)
+*   Jack Netek (Enron Communications)
+*   Lam Nguyen (NA/Enron)
+*   Camille Gerard (Corp/Enron)
+*   Craig Taylor (HOU/ECT)
+*   Jessica Hangach (NYC/MGUSA)
+*   Kathy Gagel (NYC/MGUSA)
+*   Lisa Goulart (NYC/MGUSA)
+*   Ruth Balladares (NYC/MGUSA)
+*   Sid Strutt (NYC/MGUSA)
+**Important Considerations:**
+*   **"HOU/ECT", "NA/Enron", "Corp/Enron"**: These appear to be internal department/group designations within Enron.
+*   **Ambiguity**: Some names are followed by codes that are difficult to interpret without more context.
+I hope this comprehensive list is helpful! Let me know if you have any other questions.</t>
+  </si>
+  <si>
+    <t>Okay, got it. Thanks for letting me know! See you then.</t>
+  </si>
+  <si>
+    <t>Okay, here's a breakdown of the email chain, summarizing the key points and highlighting the concerns raised.
+**Subject:**  The growing demand for power from Internet Data Centers (and the potential strain on utilities)
+**Overall Theme:** This email chain discusses the rapidly increasing power demands of internet data centers (like those housing servers for companies like Amazon, Exodus, etc.) and the challenges this presents to utility companies.  It's a warning that this isn't just a Seattle/Washington state issue, but a national trend.
+**Key Players (based on the email chain):**
+*   **Kevin (Sender of initial email):** Seems to be monitoring the situation and alerting colleagues to the potential problems.
+*   **Recipients:**  Likely colleagues within an energy/utility company (or a related consulting/regulatory role).
+**Summary of the Information (broken down by email/section):**
+1.  **Original Article (Seattle-Focused):**
+    *   **Rapid Growth:** Data centers are growing *extremely* quickly, driven by increased internet usage and bandwidth-heavy applications.
+    *   **Huge Power Demand:** These facilities consume massive amounts of electricity – equivalent to oil refineries or large university campuses.  The article cites examples of requests for 30-50 megawatts of power.
+    *   **Strain on Infrastructure:**  Utilities are struggling to keep up with the demand and are facing significant capital expenditures (potentially $20 million *per base station*) to upgrade their infrastructure.
+    *   **Cost Allocation:**  A key concern is *who* will pay for these upgrades. Utilities are exploring tariffs on data centers to avoid passing the costs onto residential and business customers.
+    *   **Seattle/Puget Sound Specifics:** The article focuses on the situation in the Seattle area, with Puget Sound Energy and Seattle City Light actively addressing the issue.
+    *   **Sabey Corp &amp; Exodus:** These companies are highlighted as major players in the data center construction and leasing market.
+2.  **Kevin's Forwarding/Comments:**
+    *   **National Trend:** Kevin emphasizes that this isn't just a local Seattle problem. It's happening in tech hubs across the country (Texas, California, etc.).
+    *   **Potential for Lucrative Business:** Data centers *could* be good customers due to their 24/7 operation.
+    *   **Exorbitant Capital Expenditures:** The main concern is the massive investment needed to support these facilities.
+**Key Concerns/Problems Highlighted:**
+*   **Infrastructure Capacity:**  Utilities may not have the capacity to handle the rapidly increasing power demands of data centers without significant upgrades.
+*   **Financial Burden:**  The cost of upgrading infrastructure is substantial, and there's debate about who should bear the financial responsibility.
+*   **Rate Impact:**  Passing the costs onto existing customers could lead to higher electricity rates.
+*   **Planning &amp; Forecasting:**  The speed of growth makes it difficult for utilities to plan and forecast future demand accurately.
+*   **Regulatory Issues:**  Utilities are seeking regulatory approval for tariffs and other measures to address the situation.
+**In essence, this email chain is a warning that the growth of internet data centers is creating a significant challenge for utility companies, requiring them to adapt quickly and address complex financial and infrastructure issues.**</t>
+  </si>
+  <si>
+    <t>Subject: Re: Tori K. &amp; Martin Cuilla Resumes/Reviews
+Phillip,
+I'm pulling Tori K.'s and Martin Cuilla's resumes and past performance reviews from HR now. I'll get those over to you as soon as possible.
+Ina</t>
+  </si>
+  <si>
+    <t>Could you please clarify what resumes you are referring to? I want to ensure I'm providing you with the correct information.</t>
+  </si>
+  <si>
+    <t>Subject: Re: September Socal trades
+Phillip,
+Thanks for sending this over. I'll review the spreadsheet shortly. 
+Mark</t>
+  </si>
+  <si>
+    <t>Subject: Re: FYI
+Thanks, Phillip. I've received the document.
+Best,
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Subject: Re: California Production Comparison
+Hi,
+Thanks for the note. I'm looking into the California production numbers now and comparing them to the 2000 Gas Report data you mentioned. You're right to point out the potential limitation of that report focusing only on the two utilities – I'll keep that in mind as I review. 
+I'll get back to you with a more detailed comparison shortly.
+Thanks,
+Richard</t>
+  </si>
+  <si>
+    <t>Subject: Re: New West Power Site Access - Jay Reitmeyer
+Hi Phillip,
+No problem, I've granted Jay Reitmeyer access to the new West Power site. 
+Let me know if you need anything else.
+Thanks,
+Cooper</t>
+  </si>
+  <si>
+    <t>Christi,
+Thanks for following up. I apologize for not sending the information in the requested format. 
+Here's the email addresses and phone numbers for the team:
+John Lavorato - john.lavorato@enron.com - (XXX) XXX-XXXX
+Mike Grigsby - mike.grigsby@enron.com - (XXX) XXX-XXXX
+Keith Holst - keith.holst@enron.com - (XXX) XXX-XXXX
+Frank Ermis - frank.ermis@enron.com - (XXX) XXX-XXXX
+Steve South - steve.south@enron.com - (XXX) XXX-XXXX
+Janie Tholt - janie.tholt@enron.com - (XXX) XXX-XXXX
+Scott Neal - scott.neal@enron.com - (XXX) XXX-XXXX
+Hunter Shively - hunter.shively@enron.com - (XXX) XXX-XXXX
+Tom Martin - tom.martin@enron.com - (XXX) XXX-XXXX
+John Arnold - john.arnold@enron.com - (XXX) XXX-XXXX
+Please let me know if you need anything else.
+Thanks,
+Phillip</t>
+  </si>
+  <si>
+    <t>Subject: Re: 2- SURVEY/INFORMATION EMAIL
+Full Name: Phillip K Allen
+Login ID: pallen
+Extension: ECT-4242
+Office Location: Houston
+What type of computer do you have? (Desktop, Laptop, Both) Desktop
+Do you have a PDA? If yes, what type do you have: (None, IPAQ, Palm Pilot, Jornada) None
+Do you have permission to access anyone's Email/Calendar? No
+If yes, who? 
+Does anyone have permission to access your Email/Calendar? No
+If yes, who? 
+Are you responsible for updating anyone else's address book? No
+If yes, who? 
+Is anyone else responsible for updating your address book? No
+If yes, who? 
+Do you have access to a shared calendar? Yes
+If yes, which shared calendar? ECT Team Calendar
+Do you have any Distribution Groups that Messaging maintains for you (for mass mailings)? No
+If yes, please list here: 
+Please list all Notes databases applications that you currently use: Domino Directory, Internal ECT Database
+In our efforts to plan the exact date/time of your migration, we also will need to know:
+What are your normal work hours? From: 8:00 To: 5:00
+Will you be out of the office in the near future for vacation, leave, etc? No</t>
+  </si>
+  <si>
+    <t>Subject: Re: Received List
+Thanks for sending this over. Let me know if there's anything specific you'd like me to do with the list.</t>
+  </si>
+  <si>
+    <t>Subject: Re: September Socal trades
+Phillip,
+Thanks for sending this over. I'll review the spreadsheet.
+Mark</t>
+  </si>
+  <si>
+    <t>Hi Keith,
+Thanks for the good luck wishes! The bike ride is going well so far.
+And yes, I'm trying to convert a corner of the apartment into a small studio space. It's a work in progress!
+Glad to hear the kids are back in school – that must be a relief. Sounds like you're busy with work as usual.
+Best,
+Greg</t>
+  </si>
+  <si>
+    <t>Hi [Sender Name],
+Good question! It seems there's been a miscommunication regarding request routing. I'm looking into how these requests are being directed to you and will get back to you shortly with an explanation and a solution. 
+In the meantime, if it's urgent, please forward the request to [relevant person/team] and let me know.
+Thanks,
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Thanks for sending over the September SoCal trades spreadsheet. I'll review it shortly.
+Best,
+Mark</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Yes, I was able to log in and find Socal on Enron Online. 
+Thanks,
+Mark</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+My address in College Station is:
+[Your Address]
+Let me know if you need anything else.
+Best,
+Brenda</t>
+  </si>
+  <si>
+    <t>Received and noted. Thanks, Kristian.
+Phillip Allen</t>
+  </si>
+  <si>
+    <t>Subject: Re: EnronOnline Guest Access
+Phillip,
+Thanks so much for the guest access to EnronOnline and for setting up "Mark's Page" – that's very helpful. I'll follow the instructions to install Shockwave and log in. I appreciate the contact information in case I run into any issues.
+Thanks again,
+Mark</t>
+  </si>
+  <si>
+    <t>Phillip,
+Thanks for sending this over – very helpful to see the breakdown of the SoCal basis and spreads, both anticipated and actual. The observations regarding the premiums on the SoCal Gas Daily Swaps and the wider spreads around bidweek are particularly interesting.
+I’ll definitely check out the functionality on Enron Online to monitor these values. 
+Thanks again,
+Mark</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Thanks for checking in. I did receive the updated numbers from Keith. 
+Best,
+Alan</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Happy to share more details! I've attached the plan for your review. 
+Besides headcount, it would be helpful to know if you have any specific dietary restrictions or accessibility needs for your team.
+Let me know if you'd like to lock in a specific afternoon next week after you've had a chance to look over the plan.
+Thanks,
+Suzanne</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+I've added Mike to the distribution list.
+Regarding Patti, I haven't spoken to her directly, but I heard through Sarah that she's taking things one day at a time and appreciates all the support. I can check in with Sarah again if you'd like more details.
+Best,
+Colleen</t>
+  </si>
+  <si>
+    <t>Subject: Re: Tori Kuykendall &amp; Martin Cuilla
+Phillip,
+Sounds good. Please proceed with promoting Tori Kuykendall to Commercial Manager and handling Martin Cuilla the same way, as Hunter requested. 
+Let me know if you need anything from my end.
+Brad</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Sure, I can take a look at your Reuters setup. When would be a good time to stop by?
+Thanks,
+Bruce</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Okay, I've made the modifications to the rent roll spreadsheet as you requested:
+*   Added the formula to column E (=c6+d6) and copied it down.
+*   Added the formula to column H (=e6-g6).
+*   Widened column F so the values are now visible.
+I'll work on bringing the database columns over to columns J and beyond once this rent portion is finalized. 
+Let me know if you have any other requests.
+Thanks,
+Lucy</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Sounds good - let's do it! Let me know how you'd like to proceed.
+Best,
+Lucy</t>
+  </si>
+  <si>
+    <t>Great, thank you! 
+Let me know if you need anything further from me on this.</t>
+  </si>
+  <si>
+    <t>Hi Phillip,
+I'll follow up on my previous email later. 
+Spreadsheet progress is going well. I'll be sure to close the file before attaching it. 
+I'm working on those two files now and aiming to make good progress this afternoon.
+Thanks,
+Lucy</t>
+  </si>
+  <si>
+    <t>Subject: Re: Excel File - Rents Due
+Hi [Sender Name],
+Okay, I've opened the file and updated it with the rents and names due for this week. I'm emailing it back to you now.
+Let me know if you need anything else.
+Thanks,
+Lucy</t>
+  </si>
+  <si>
+    <t>Subject: Re: LP-1 Analysis - Utility Spreadsheet
+Okay, I've opened the "utility" spreadsheet and will begin the analysis to determine whether a small or medium commercial rate (LP-1) is more cost-effective. 
+I'll gather the last 12 months of usage data for the meter and apply the rates outlined in the spreadsheet. I'll let you know the results as soon as I have them.
+Thanks for the opportunity to practice my Excel skills!</t>
+  </si>
+  <si>
+    <t>Subject: Re: Request from Steve Kean
+Phillip,
+I've received the requests from Alan and Janel regarding updates for Steve Kean's briefing materials. 
+I'll work on updating the gas table and the power point presentation to reflect regulatory/legislative decisions, and will also pull the forward price curves for gas and power in CA. 
+I should have everything ready by Monday afternoon as requested. Let me know if you have any questions.
+Thanks,
+[Your Name]</t>
+  </si>
+  <si>
+    <t>Subject: Re: EOG Research &amp; Requests
+Phillip,
+Thanks for sharing your analysis on EOG – those are some compelling numbers, and I appreciate you walking me through your calculations. I'm happy to play devil's advocate and will dig into the assumptions to see where we might find some weaknesses. 
+Regarding your valuation – the jump from $2.86 EPS to $34/share is aggressive with the 12x P/E multiple, but not unreasonable if the gas price holds and EOG can maintain those earnings. The additional $10/share for crude is interesting, though harder to quantify without more detail.
+I'll start compiling reports on Calpine, Tosco, and SLB and will get those over to you as soon as possible. 
+Let me know if you have any initial thoughts on where I should focus my scrutiny of the EOG numbers.
+Thanks,
+Mac</t>
+  </si>
+  <si>
+    <t>Lucy,
+Thanks for the update. It sounds like you're handling a lot!
+Regarding your question about what people are saying about Mary, I'm not sure what you're referring to – could you clarify when you call tomorrow? 
+Regarding the ants, please let maintenance know immediately so they can address that. It's good to hear Wade is working on the bulletin board and that you resolved the overcrowding issue in #25. Sending a lease violation to #28 was the right move regarding the language complaint.
+Talk to you tomorrow.
+Phillip</t>
+  </si>
+  <si>
+    <t>Lucy,
+Thanks for the detailed report. I've received the information regarding the purchases for apartments #17 and #20-B, as well as the fax machine. 
+Please continue sending these daily reports – they are very helpful.
+Thanks,
+Phillip</t>
+  </si>
+  <si>
+    <t>Lucy,
+Thanks for the update. I'll mention the van to Wade. Let me know how things go with Gary tomorrow.
+Phillip</t>
+  </si>
+  <si>
+    <t>Subject: Re: Exercise Options &amp; Investment Ideas
+Hi Phillip,
+Good to hear you're moving forward with exercising options and have a plan for the proceeds.
+Regarding JDSU and SDLI, I need to do some further analysis before offering a recommendation. I'll look into both companies and get back to you with my thoughts shortly.
+I'm also happy to research EOG as a potential play on rising oil and gas prices. I'll include that in my analysis as well.
+Thanks,</t>
+  </si>
+  <si>
+    <t>PrivyBridge_gemma3:27b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Thank you for reaching out. Next Tuesday works perfectly for me. Let me know if that suits you as well.
+Best,
+Greg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Thursday works great for me. Let me know what time you had in mind.
+Thanks,
+Greg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subject: Re: Westgate Proforma-Phillip Allen.xls
+George,
+Thanks so much for sending this over – the proforma looks very promising. I appreciate you taking the time to put it together.
+I'll review the package you're sending via Airborne Express and will get back to you early next week to schedule a site visit. I'm available most days, so please let me know what works best on your end.
+I'm very sorry to hear about the issues with the townhomes and your wife’s health – that sounds incredibly stressful. I’m glad to hear she’s expected to recover.
+Looking forward to discussing this further.
+Best regards,
+Phillip Allen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Thank you for sending over the rentrolls. I will follow the steps you provided to save them in the correct folder.
+Best regards,  
+Lucy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Got it, thank you! I will save the rentrolls to the designated folder on the C drive following your steps.
+Lucy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hi Richard,
+Thank you for the detailed update and for outlining the key issues and tasks ahead. I agree that focusing on a single set of requirements is crucial for moving forward effectively. I will ensure that we have a productive session on Monday to design the desired layout for the consolidated position screen. This will help us establish firm requirements and create a measurable plan.
+I also acknowledge the need for a single point of contact from the trading group to streamline the process and achieve consensus on trader requirements. I will work on identifying someone who can fulfill this role.
+Let's continue to maintain open communication and focus on our objectives to ensure the success of this project. Please keep me updated on any further developments or meetings.
+Best regards,
+Phillip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subject: Re: Consolidated positions: Issues &amp; To Do list
+Phillip,
+Thanks for forwarding this chain. I agree with Richard's assessment – focusing on a defined layout for the consolidated position screen on Monday is a critical next step. 
+I'll be available between 3-5 on Monday to contribute to that effort. Please let me know if there's anything I can do to prepare beforehand.
+Thanks,
+[Your Name]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Thank you for reaching out. Yes, please go ahead and fax me a copy of the original deal for our records. I appreciate your promptness in handling this.
+Best regards,
+Brenda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hi Phillip,
+Yes, please apply the second check to your October payment. And yes, please fax a copy of the original deal to me – that would be great. 
+Thanks,
+Brenda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thank you for the update on the rescheduled meeting. I have noted the new time and will be there. Please let me know if there are any further changes.
+Best regards,  
+[Your Name]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Okay, noted. Thanks for the update on the rescheduled meeting. I'll adjust my calendar accordingly.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hi Christi,
+Thank you for reaching out. I apologize for the delay in sending the completed Team Selection information. I will ensure that the necessary details, including email addresses and phone numbers, are provided to you as soon as possible. 
+Please let me know if there is anything else you need in the meantime.
+Best regards,
+[Your Name]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Christi,
+My apologies for the delay. Here is the requested information in the format you need:
+Name | Email | Phone | Office
+------- | -------- | -------- | --------
+John Lavorato | john.lavarato@enron.com |  | M
+Mike Grigsby | mike.grigsby@enron.com |  | D
+Keith Holst | keith.holst@enron.com |  | D
+Frank Ermis | frank.ermis@enron.com |  | D
+Steve South | steve.south@enron.com |  | D
+Janie Tholt | janie.tholt@enron.com |  | D
+Scott Neal | scott.neal@enron.com |  | P
+Hunter Shively | hunter.shively@enron.com |  | P
+Tom Martin | tom.martin@enron.com |  | P
+John Arnold | john.arnold@enron.com |  | P
+Please let me know if you require anything further.
+Thanks,
+Phillip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9448,6 +11018,22 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -9489,12 +11075,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9799,3202 +11392,3809 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:K3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="8" max="8" width="29.1640625" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" customWidth="1"/>
+    <col min="8" max="8" width="32.1640625" customWidth="1"/>
+    <col min="10" max="10" width="29.1640625" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="180">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>600</v>
+      </c>
+      <c r="M2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="409.6">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>932</v>
+      <c r="C3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" t="s">
+        <v>601</v>
+      </c>
+      <c r="K3" t="s">
+        <v>602</v>
+      </c>
+      <c r="L3" t="s">
+        <v>603</v>
+      </c>
+      <c r="M3" t="s">
+        <v>871</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>601</v>
-      </c>
-      <c r="K2" t="s">
-        <v>601</v>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>935</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="K4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>604</v>
+      </c>
+      <c r="M4" t="s">
+        <v>604</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="409.6">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" t="s">
-        <v>602</v>
-      </c>
-      <c r="I3" t="s">
-        <v>603</v>
-      </c>
-      <c r="J3" t="s">
-        <v>604</v>
-      </c>
-      <c r="K3" t="s">
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>936</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>605</v>
+      </c>
+      <c r="M5" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>937</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J6" t="s">
+        <v>606</v>
+      </c>
+      <c r="K6" t="s">
+        <v>607</v>
+      </c>
+      <c r="L6" t="s">
+        <v>608</v>
+      </c>
+      <c r="M6" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="409.6">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J7" t="s">
+        <v>609</v>
+      </c>
+      <c r="K7" t="s">
+        <v>610</v>
+      </c>
+      <c r="L7" t="s">
+        <v>611</v>
+      </c>
+      <c r="M7" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" t="s">
-        <v>605</v>
-      </c>
-      <c r="K4" t="s">
-        <v>605</v>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>938</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="J8" t="s">
+        <v>612</v>
+      </c>
+      <c r="K8" t="s">
+        <v>613</v>
+      </c>
+      <c r="L8" t="s">
+        <v>614</v>
+      </c>
+      <c r="M8" t="s">
+        <v>873</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E5" t="s">
-        <v>214</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" t="s">
-        <v>606</v>
-      </c>
-      <c r="K5" t="s">
-        <v>606</v>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>939</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J9" t="s">
+        <v>615</v>
+      </c>
+      <c r="K9" t="s">
+        <v>616</v>
+      </c>
+      <c r="L9" t="s">
+        <v>617</v>
+      </c>
+      <c r="M9" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D6" t="s">
-        <v>217</v>
-      </c>
-      <c r="E6" t="s">
-        <v>218</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" t="s">
-        <v>607</v>
-      </c>
-      <c r="I6" t="s">
-        <v>608</v>
-      </c>
-      <c r="J6" t="s">
-        <v>609</v>
-      </c>
-      <c r="K6" t="s">
-        <v>609</v>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>940</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J10" t="s">
+        <v>618</v>
+      </c>
+      <c r="K10" t="s">
+        <v>619</v>
+      </c>
+      <c r="L10" t="s">
+        <v>620</v>
+      </c>
+      <c r="M10" t="s">
+        <v>620</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="409.6">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>610</v>
-      </c>
-      <c r="I7" t="s">
-        <v>611</v>
-      </c>
-      <c r="J7" t="s">
-        <v>612</v>
-      </c>
-      <c r="K7" t="s">
-        <v>873</v>
+    <row r="11" spans="1:13" ht="409.6">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11" t="s">
+        <v>236</v>
+      </c>
+      <c r="E11" t="s">
+        <v>237</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>621</v>
+      </c>
+      <c r="K11" t="s">
+        <v>622</v>
+      </c>
+      <c r="L11" t="s">
+        <v>623</v>
+      </c>
+      <c r="M11" t="s">
+        <v>874</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D8" t="s">
-        <v>225</v>
-      </c>
-      <c r="E8" t="s">
-        <v>226</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>613</v>
-      </c>
-      <c r="I8" t="s">
-        <v>614</v>
-      </c>
-      <c r="J8" t="s">
-        <v>615</v>
-      </c>
-      <c r="K8" t="s">
-        <v>874</v>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>942</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="J12" t="s">
+        <v>624</v>
+      </c>
+      <c r="K12" t="s">
+        <v>625</v>
+      </c>
+      <c r="L12" t="s">
+        <v>626</v>
+      </c>
+      <c r="M12" t="s">
+        <v>875</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>227</v>
-      </c>
-      <c r="C9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D9" t="s">
-        <v>229</v>
-      </c>
-      <c r="E9" t="s">
-        <v>230</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
-        <v>616</v>
-      </c>
-      <c r="I9" t="s">
-        <v>617</v>
-      </c>
-      <c r="J9" t="s">
-        <v>618</v>
-      </c>
-      <c r="K9" t="s">
-        <v>618</v>
+    <row r="13" spans="1:13" ht="165">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D13" t="s">
+        <v>244</v>
+      </c>
+      <c r="E13" t="s">
+        <v>245</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>627</v>
+      </c>
+      <c r="K13" t="s">
+        <v>628</v>
+      </c>
+      <c r="L13" t="s">
+        <v>629</v>
+      </c>
+      <c r="M13" t="s">
+        <v>876</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C10" t="s">
-        <v>232</v>
-      </c>
-      <c r="D10" t="s">
-        <v>233</v>
-      </c>
-      <c r="E10" t="s">
-        <v>234</v>
-      </c>
-      <c r="F10" t="s">
+    <row r="14" spans="1:13" ht="409.6">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>246</v>
+      </c>
+      <c r="C14" t="s">
+        <v>247</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E14" t="s">
+        <v>249</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="J14" t="s">
+        <v>630</v>
+      </c>
+      <c r="K14" t="s">
+        <v>631</v>
+      </c>
+      <c r="L14" t="s">
+        <v>632</v>
+      </c>
+      <c r="M14" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>250</v>
+      </c>
+      <c r="C15" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" t="s">
+        <v>252</v>
+      </c>
+      <c r="E15" t="s">
+        <v>253</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>943</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J15" t="s">
+        <v>633</v>
+      </c>
+      <c r="K15" t="s">
+        <v>634</v>
+      </c>
+      <c r="L15" t="s">
+        <v>635</v>
+      </c>
+      <c r="M15" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C16" t="s">
+        <v>255</v>
+      </c>
+      <c r="D16" t="s">
+        <v>256</v>
+      </c>
+      <c r="E16" t="s">
+        <v>257</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s">
+        <v>944</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="J16" t="s">
+        <v>636</v>
+      </c>
+      <c r="K16" t="s">
+        <v>637</v>
+      </c>
+      <c r="L16" t="s">
+        <v>638</v>
+      </c>
+      <c r="M16" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>258</v>
+      </c>
+      <c r="C17" t="s">
+        <v>259</v>
+      </c>
+      <c r="D17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E17" t="s">
+        <v>261</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
+        <v>945</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J17" t="s">
+        <v>639</v>
+      </c>
+      <c r="K17" t="s">
+        <v>640</v>
+      </c>
+      <c r="L17" t="s">
+        <v>641</v>
+      </c>
+      <c r="M17" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>262</v>
+      </c>
+      <c r="C18" t="s">
+        <v>263</v>
+      </c>
+      <c r="D18" t="s">
+        <v>264</v>
+      </c>
+      <c r="E18" t="s">
+        <v>265</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" t="s">
+        <v>946</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J18" t="s">
+        <v>642</v>
+      </c>
+      <c r="K18" t="s">
+        <v>643</v>
+      </c>
+      <c r="L18" t="s">
+        <v>644</v>
+      </c>
+      <c r="M18" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>266</v>
+      </c>
+      <c r="C19" t="s">
+        <v>267</v>
+      </c>
+      <c r="D19" t="s">
+        <v>268</v>
+      </c>
+      <c r="E19" t="s">
+        <v>269</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
+        <v>947</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" t="s">
+        <v>645</v>
+      </c>
+      <c r="M19" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>270</v>
+      </c>
+      <c r="C20" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20" t="s">
+        <v>272</v>
+      </c>
+      <c r="E20" t="s">
+        <v>273</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" t="s">
+        <v>948</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J20" t="s">
+        <v>646</v>
+      </c>
+      <c r="K20" t="s">
+        <v>647</v>
+      </c>
+      <c r="L20" t="s">
+        <v>648</v>
+      </c>
+      <c r="M20" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>274</v>
+      </c>
+      <c r="C21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D21" t="s">
+        <v>276</v>
+      </c>
+      <c r="E21" t="s">
+        <v>277</v>
+      </c>
+      <c r="F21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" t="s">
+        <v>949</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="J21" t="s">
+        <v>649</v>
+      </c>
+      <c r="K21" t="s">
+        <v>650</v>
+      </c>
+      <c r="L21" t="s">
+        <v>651</v>
+      </c>
+      <c r="M21" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>278</v>
+      </c>
+      <c r="C22" t="s">
+        <v>279</v>
+      </c>
+      <c r="D22" t="s">
+        <v>280</v>
+      </c>
+      <c r="E22" t="s">
+        <v>281</v>
+      </c>
+      <c r="F22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" t="s">
+        <v>950</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="J22" t="s">
+        <v>652</v>
+      </c>
+      <c r="K22" t="s">
+        <v>653</v>
+      </c>
+      <c r="L22" t="s">
+        <v>654</v>
+      </c>
+      <c r="M22" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>282</v>
+      </c>
+      <c r="C23" t="s">
+        <v>283</v>
+      </c>
+      <c r="D23" t="s">
+        <v>284</v>
+      </c>
+      <c r="E23" t="s">
+        <v>285</v>
+      </c>
+      <c r="F23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" t="s">
+        <v>951</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J23" t="s">
+        <v>655</v>
+      </c>
+      <c r="K23" t="s">
+        <v>656</v>
+      </c>
+      <c r="L23" t="s">
+        <v>657</v>
+      </c>
+      <c r="M23" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="195">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>286</v>
+      </c>
+      <c r="C24" t="s">
+        <v>287</v>
+      </c>
+      <c r="D24" t="s">
+        <v>288</v>
+      </c>
+      <c r="E24" t="s">
+        <v>289</v>
+      </c>
+      <c r="F24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="J24" t="s">
+        <v>658</v>
+      </c>
+      <c r="K24" t="s">
+        <v>659</v>
+      </c>
+      <c r="L24" t="s">
+        <v>660</v>
+      </c>
+      <c r="M24" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>290</v>
+      </c>
+      <c r="C25" t="s">
+        <v>291</v>
+      </c>
+      <c r="D25" t="s">
+        <v>292</v>
+      </c>
+      <c r="E25" t="s">
+        <v>293</v>
+      </c>
+      <c r="F25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" t="s">
+        <v>952</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J25" t="s">
+        <v>661</v>
+      </c>
+      <c r="K25" t="s">
+        <v>662</v>
+      </c>
+      <c r="L25" t="s">
+        <v>663</v>
+      </c>
+      <c r="M25" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>294</v>
+      </c>
+      <c r="C26" t="s">
+        <v>295</v>
+      </c>
+      <c r="D26" t="s">
+        <v>296</v>
+      </c>
+      <c r="E26" t="s">
+        <v>297</v>
+      </c>
+      <c r="F26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" t="s">
+        <v>953</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J26" t="s">
+        <v>664</v>
+      </c>
+      <c r="K26" t="s">
+        <v>665</v>
+      </c>
+      <c r="L26" t="s">
+        <v>666</v>
+      </c>
+      <c r="M26" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>298</v>
+      </c>
+      <c r="C27" t="s">
+        <v>299</v>
+      </c>
+      <c r="D27" t="s">
+        <v>300</v>
+      </c>
+      <c r="E27" t="s">
+        <v>301</v>
+      </c>
+      <c r="F27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" t="s">
+        <v>954</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="K27" t="s">
+        <v>49</v>
+      </c>
+      <c r="L27" t="s">
+        <v>667</v>
+      </c>
+      <c r="M27" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>302</v>
+      </c>
+      <c r="C28" t="s">
+        <v>303</v>
+      </c>
+      <c r="D28" t="s">
+        <v>304</v>
+      </c>
+      <c r="E28" t="s">
+        <v>305</v>
+      </c>
+      <c r="F28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" t="s">
+        <v>955</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="K28" t="s">
+        <v>51</v>
+      </c>
+      <c r="L28" t="s">
+        <v>668</v>
+      </c>
+      <c r="M28" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
+        <v>306</v>
+      </c>
+      <c r="C29" t="s">
+        <v>307</v>
+      </c>
+      <c r="D29" t="s">
+        <v>308</v>
+      </c>
+      <c r="E29" t="s">
+        <v>309</v>
+      </c>
+      <c r="F29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" t="s">
+        <v>956</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J29" t="s">
+        <v>669</v>
+      </c>
+      <c r="K29" t="s">
+        <v>670</v>
+      </c>
+      <c r="L29" t="s">
+        <v>671</v>
+      </c>
+      <c r="M29" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>310</v>
+      </c>
+      <c r="C30" t="s">
+        <v>311</v>
+      </c>
+      <c r="D30" t="s">
+        <v>312</v>
+      </c>
+      <c r="E30" t="s">
+        <v>313</v>
+      </c>
+      <c r="F30" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" t="s">
+        <v>957</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="J30" t="s">
+        <v>672</v>
+      </c>
+      <c r="K30" t="s">
+        <v>673</v>
+      </c>
+      <c r="L30" t="s">
+        <v>674</v>
+      </c>
+      <c r="M30" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
+        <v>314</v>
+      </c>
+      <c r="C31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" t="s">
+        <v>315</v>
+      </c>
+      <c r="E31" t="s">
+        <v>316</v>
+      </c>
+      <c r="F31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" t="s">
+        <v>958</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J31" t="s">
+        <v>675</v>
+      </c>
+      <c r="K31" t="s">
+        <v>57</v>
+      </c>
+      <c r="L31" t="s">
+        <v>676</v>
+      </c>
+      <c r="M31" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
+        <v>317</v>
+      </c>
+      <c r="C32" t="s">
+        <v>318</v>
+      </c>
+      <c r="D32" t="s">
+        <v>319</v>
+      </c>
+      <c r="E32" t="s">
+        <v>320</v>
+      </c>
+      <c r="F32" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" t="s">
+        <v>959</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="J32" t="s">
+        <v>677</v>
+      </c>
+      <c r="K32" t="s">
+        <v>678</v>
+      </c>
+      <c r="L32" t="s">
+        <v>679</v>
+      </c>
+      <c r="M32" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
+        <v>321</v>
+      </c>
+      <c r="C33" t="s">
+        <v>322</v>
+      </c>
+      <c r="D33" t="s">
+        <v>323</v>
+      </c>
+      <c r="E33" t="s">
+        <v>324</v>
+      </c>
+      <c r="F33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" t="s">
+        <v>960</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J33" t="s">
+        <v>680</v>
+      </c>
+      <c r="K33" t="s">
+        <v>681</v>
+      </c>
+      <c r="L33" t="s">
+        <v>682</v>
+      </c>
+      <c r="M33" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C34" t="s">
+        <v>326</v>
+      </c>
+      <c r="D34" t="s">
+        <v>327</v>
+      </c>
+      <c r="E34" t="s">
+        <v>328</v>
+      </c>
+      <c r="F34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" t="s">
+        <v>961</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="J34" t="s">
+        <v>683</v>
+      </c>
+      <c r="K34" t="s">
+        <v>684</v>
+      </c>
+      <c r="L34" t="s">
+        <v>685</v>
+      </c>
+      <c r="M34" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" t="s">
+        <v>329</v>
+      </c>
+      <c r="C35" t="s">
+        <v>330</v>
+      </c>
+      <c r="D35" t="s">
+        <v>331</v>
+      </c>
+      <c r="E35" t="s">
+        <v>332</v>
+      </c>
+      <c r="F35" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" t="s">
+        <v>962</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J35" t="s">
+        <v>686</v>
+      </c>
+      <c r="K35" t="s">
+        <v>687</v>
+      </c>
+      <c r="L35" t="s">
+        <v>688</v>
+      </c>
+      <c r="M35" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="165">
+      <c r="A36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" t="s">
+        <v>333</v>
+      </c>
+      <c r="C36" t="s">
+        <v>334</v>
+      </c>
+      <c r="D36" t="s">
+        <v>335</v>
+      </c>
+      <c r="E36" t="s">
+        <v>336</v>
+      </c>
+      <c r="F36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="J36" t="s">
+        <v>689</v>
+      </c>
+      <c r="K36" t="s">
+        <v>690</v>
+      </c>
+      <c r="L36" t="s">
+        <v>691</v>
+      </c>
+      <c r="M36" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C37" t="s">
+        <v>338</v>
+      </c>
+      <c r="D37" t="s">
+        <v>339</v>
+      </c>
+      <c r="E37" t="s">
+        <v>340</v>
+      </c>
+      <c r="F37" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" t="s">
+        <v>963</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="J37" t="s">
+        <v>692</v>
+      </c>
+      <c r="K37" t="s">
+        <v>693</v>
+      </c>
+      <c r="L37" t="s">
+        <v>694</v>
+      </c>
+      <c r="M37" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s">
+        <v>341</v>
+      </c>
+      <c r="C38" t="s">
+        <v>342</v>
+      </c>
+      <c r="D38" t="s">
+        <v>343</v>
+      </c>
+      <c r="E38" t="s">
+        <v>344</v>
+      </c>
+      <c r="F38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" t="s">
+        <v>964</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="J38" t="s">
+        <v>695</v>
+      </c>
+      <c r="K38" t="s">
+        <v>696</v>
+      </c>
+      <c r="L38" t="s">
+        <v>697</v>
+      </c>
+      <c r="M38" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" t="s">
+        <v>345</v>
+      </c>
+      <c r="C39" t="s">
+        <v>346</v>
+      </c>
+      <c r="D39" t="s">
+        <v>347</v>
+      </c>
+      <c r="E39" t="s">
+        <v>348</v>
+      </c>
+      <c r="F39" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" t="s">
+        <v>965</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J39" t="s">
+        <v>698</v>
+      </c>
+      <c r="K39" t="s">
+        <v>699</v>
+      </c>
+      <c r="L39" t="s">
+        <v>700</v>
+      </c>
+      <c r="M39" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" t="s">
+        <v>349</v>
+      </c>
+      <c r="C40" t="s">
+        <v>350</v>
+      </c>
+      <c r="D40" t="s">
+        <v>351</v>
+      </c>
+      <c r="E40" t="s">
+        <v>352</v>
+      </c>
+      <c r="F40" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40" t="s">
+        <v>966</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J40" t="s">
+        <v>701</v>
+      </c>
+      <c r="K40" t="s">
+        <v>702</v>
+      </c>
+      <c r="L40" t="s">
+        <v>703</v>
+      </c>
+      <c r="M40" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
+        <v>353</v>
+      </c>
+      <c r="C41" t="s">
+        <v>354</v>
+      </c>
+      <c r="D41" t="s">
+        <v>355</v>
+      </c>
+      <c r="E41" t="s">
+        <v>356</v>
+      </c>
+      <c r="F41" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" t="s">
+        <v>967</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="J41" t="s">
+        <v>704</v>
+      </c>
+      <c r="K41" t="s">
+        <v>77</v>
+      </c>
+      <c r="L41" t="s">
+        <v>705</v>
+      </c>
+      <c r="M41" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
+        <v>357</v>
+      </c>
+      <c r="C42" t="s">
+        <v>358</v>
+      </c>
+      <c r="D42" t="s">
+        <v>359</v>
+      </c>
+      <c r="E42" t="s">
+        <v>360</v>
+      </c>
+      <c r="F42" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" t="s">
+        <v>968</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="J42" t="s">
+        <v>706</v>
+      </c>
+      <c r="K42" t="s">
+        <v>707</v>
+      </c>
+      <c r="L42" t="s">
+        <v>708</v>
+      </c>
+      <c r="M42" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
         <v>17</v>
       </c>
-      <c r="H10" t="s">
-        <v>619</v>
-      </c>
-      <c r="I10" t="s">
-        <v>620</v>
-      </c>
-      <c r="J10" t="s">
-        <v>621</v>
-      </c>
-      <c r="K10" t="s">
-        <v>621</v>
+      <c r="B43" t="s">
+        <v>361</v>
+      </c>
+      <c r="C43" t="s">
+        <v>362</v>
+      </c>
+      <c r="D43" t="s">
+        <v>363</v>
+      </c>
+      <c r="E43" t="s">
+        <v>364</v>
+      </c>
+      <c r="F43" t="s">
+        <v>81</v>
+      </c>
+      <c r="G43" t="s">
+        <v>969</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="J43" t="s">
+        <v>709</v>
+      </c>
+      <c r="K43" t="s">
+        <v>710</v>
+      </c>
+      <c r="L43" t="s">
+        <v>711</v>
+      </c>
+      <c r="M43" t="s">
+        <v>711</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>235</v>
-      </c>
-      <c r="C11" t="s">
-        <v>236</v>
-      </c>
-      <c r="D11" t="s">
-        <v>237</v>
-      </c>
-      <c r="E11" t="s">
-        <v>238</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" t="s">
-        <v>622</v>
-      </c>
-      <c r="I11" t="s">
-        <v>623</v>
-      </c>
-      <c r="J11" t="s">
-        <v>624</v>
-      </c>
-      <c r="K11" t="s">
-        <v>875</v>
+    <row r="44" spans="1:13">
+      <c r="A44" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" t="s">
+        <v>365</v>
+      </c>
+      <c r="C44" t="s">
+        <v>366</v>
+      </c>
+      <c r="D44" t="s">
+        <v>367</v>
+      </c>
+      <c r="E44" t="s">
+        <v>368</v>
+      </c>
+      <c r="F44" t="s">
+        <v>83</v>
+      </c>
+      <c r="G44" t="s">
+        <v>970</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="J44" t="s">
+        <v>712</v>
+      </c>
+      <c r="K44" t="s">
+        <v>713</v>
+      </c>
+      <c r="L44" t="s">
+        <v>714</v>
+      </c>
+      <c r="M44" t="s">
+        <v>714</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>239</v>
-      </c>
-      <c r="C12" t="s">
-        <v>240</v>
-      </c>
-      <c r="D12" t="s">
-        <v>241</v>
-      </c>
-      <c r="E12" t="s">
-        <v>242</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" t="s">
-        <v>625</v>
-      </c>
-      <c r="I12" t="s">
-        <v>626</v>
-      </c>
-      <c r="J12" t="s">
-        <v>627</v>
-      </c>
-      <c r="K12" t="s">
-        <v>876</v>
+    <row r="45" spans="1:13">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" t="s">
+        <v>369</v>
+      </c>
+      <c r="C45" t="s">
+        <v>370</v>
+      </c>
+      <c r="D45" t="s">
+        <v>371</v>
+      </c>
+      <c r="E45" t="s">
+        <v>372</v>
+      </c>
+      <c r="F45" t="s">
+        <v>85</v>
+      </c>
+      <c r="G45" t="s">
+        <v>971</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="J45" t="s">
+        <v>715</v>
+      </c>
+      <c r="K45" t="s">
+        <v>716</v>
+      </c>
+      <c r="L45" t="s">
+        <v>717</v>
+      </c>
+      <c r="M45" t="s">
+        <v>895</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>243</v>
-      </c>
-      <c r="C13" t="s">
-        <v>244</v>
-      </c>
-      <c r="D13" t="s">
-        <v>245</v>
-      </c>
-      <c r="E13" t="s">
-        <v>246</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" t="s">
-        <v>628</v>
-      </c>
-      <c r="I13" t="s">
-        <v>629</v>
-      </c>
-      <c r="J13" t="s">
-        <v>630</v>
-      </c>
-      <c r="K13" t="s">
-        <v>877</v>
+    <row r="46" spans="1:13">
+      <c r="A46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" t="s">
+        <v>373</v>
+      </c>
+      <c r="C46" t="s">
+        <v>374</v>
+      </c>
+      <c r="D46" t="s">
+        <v>375</v>
+      </c>
+      <c r="E46" t="s">
+        <v>376</v>
+      </c>
+      <c r="F46" t="s">
+        <v>87</v>
+      </c>
+      <c r="G46" t="s">
+        <v>972</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J46" t="s">
+        <v>718</v>
+      </c>
+      <c r="K46" t="s">
+        <v>719</v>
+      </c>
+      <c r="L46" t="s">
+        <v>720</v>
+      </c>
+      <c r="M46" t="s">
+        <v>896</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="409.6">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>247</v>
-      </c>
-      <c r="C14" t="s">
-        <v>248</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E14" t="s">
-        <v>250</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" t="s">
-        <v>631</v>
-      </c>
-      <c r="I14" t="s">
-        <v>632</v>
-      </c>
-      <c r="J14" t="s">
-        <v>633</v>
-      </c>
-      <c r="K14" t="s">
-        <v>878</v>
+    <row r="47" spans="1:13">
+      <c r="A47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" t="s">
+        <v>377</v>
+      </c>
+      <c r="C47" t="s">
+        <v>378</v>
+      </c>
+      <c r="D47" t="s">
+        <v>379</v>
+      </c>
+      <c r="E47" t="s">
+        <v>380</v>
+      </c>
+      <c r="F47" t="s">
+        <v>89</v>
+      </c>
+      <c r="G47" t="s">
+        <v>973</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J47" t="s">
+        <v>721</v>
+      </c>
+      <c r="K47" t="s">
+        <v>88</v>
+      </c>
+      <c r="L47" t="s">
+        <v>722</v>
+      </c>
+      <c r="M47" t="s">
+        <v>722</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>251</v>
-      </c>
-      <c r="C15" t="s">
-        <v>252</v>
-      </c>
-      <c r="D15" t="s">
-        <v>253</v>
-      </c>
-      <c r="E15" t="s">
-        <v>254</v>
-      </c>
-      <c r="F15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" t="s">
-        <v>634</v>
-      </c>
-      <c r="I15" t="s">
-        <v>635</v>
-      </c>
-      <c r="J15" t="s">
-        <v>636</v>
-      </c>
-      <c r="K15" t="s">
-        <v>879</v>
+    <row r="48" spans="1:13">
+      <c r="A48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" t="s">
+        <v>381</v>
+      </c>
+      <c r="C48" t="s">
+        <v>382</v>
+      </c>
+      <c r="D48" t="s">
+        <v>383</v>
+      </c>
+      <c r="E48" t="s">
+        <v>384</v>
+      </c>
+      <c r="F48" t="s">
+        <v>91</v>
+      </c>
+      <c r="G48" t="s">
+        <v>974</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="J48" t="s">
+        <v>723</v>
+      </c>
+      <c r="K48" t="s">
+        <v>724</v>
+      </c>
+      <c r="L48" t="s">
+        <v>725</v>
+      </c>
+      <c r="M48" t="s">
+        <v>897</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>255</v>
-      </c>
-      <c r="C16" t="s">
-        <v>256</v>
-      </c>
-      <c r="D16" t="s">
-        <v>257</v>
-      </c>
-      <c r="E16" t="s">
-        <v>258</v>
-      </c>
-      <c r="F16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" t="s">
-        <v>637</v>
-      </c>
-      <c r="I16" t="s">
-        <v>638</v>
-      </c>
-      <c r="J16" t="s">
-        <v>639</v>
-      </c>
-      <c r="K16" t="s">
-        <v>880</v>
+    <row r="49" spans="1:13">
+      <c r="A49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" t="s">
+        <v>385</v>
+      </c>
+      <c r="C49" t="s">
+        <v>386</v>
+      </c>
+      <c r="D49" t="s">
+        <v>387</v>
+      </c>
+      <c r="E49" t="s">
+        <v>388</v>
+      </c>
+      <c r="F49" t="s">
+        <v>93</v>
+      </c>
+      <c r="G49" t="s">
+        <v>975</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="J49" t="s">
+        <v>726</v>
+      </c>
+      <c r="K49" t="s">
+        <v>727</v>
+      </c>
+      <c r="L49" t="s">
+        <v>728</v>
+      </c>
+      <c r="M49" t="s">
+        <v>898</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>259</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="50" spans="1:13">
+      <c r="A50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" t="s">
+        <v>389</v>
+      </c>
+      <c r="C50" t="s">
+        <v>390</v>
+      </c>
+      <c r="D50" t="s">
+        <v>391</v>
+      </c>
+      <c r="E50" t="s">
+        <v>392</v>
+      </c>
+      <c r="F50" t="s">
+        <v>95</v>
+      </c>
+      <c r="G50" t="s">
+        <v>976</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J50" t="s">
+        <v>729</v>
+      </c>
+      <c r="K50" t="s">
+        <v>730</v>
+      </c>
+      <c r="L50" t="s">
+        <v>731</v>
+      </c>
+      <c r="M50" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" t="s">
+        <v>393</v>
+      </c>
+      <c r="C51" t="s">
+        <v>394</v>
+      </c>
+      <c r="D51" t="s">
+        <v>395</v>
+      </c>
+      <c r="E51" t="s">
+        <v>396</v>
+      </c>
+      <c r="F51" t="s">
+        <v>97</v>
+      </c>
+      <c r="G51" t="s">
+        <v>977</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J51" t="s">
+        <v>732</v>
+      </c>
+      <c r="K51" t="s">
+        <v>733</v>
+      </c>
+      <c r="L51" t="s">
+        <v>734</v>
+      </c>
+      <c r="M51" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" t="s">
+        <v>397</v>
+      </c>
+      <c r="C52" t="s">
+        <v>398</v>
+      </c>
+      <c r="D52" t="s">
+        <v>399</v>
+      </c>
+      <c r="E52" t="s">
+        <v>400</v>
+      </c>
+      <c r="F52" t="s">
+        <v>99</v>
+      </c>
+      <c r="G52" t="s">
+        <v>978</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="J52" t="s">
+        <v>735</v>
+      </c>
+      <c r="K52" t="s">
+        <v>736</v>
+      </c>
+      <c r="L52" t="s">
+        <v>737</v>
+      </c>
+      <c r="M52" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" t="s">
+        <v>401</v>
+      </c>
+      <c r="C53" t="s">
+        <v>402</v>
+      </c>
+      <c r="D53" t="s">
+        <v>403</v>
+      </c>
+      <c r="E53" t="s">
+        <v>404</v>
+      </c>
+      <c r="F53" t="s">
+        <v>101</v>
+      </c>
+      <c r="G53" t="s">
+        <v>979</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="J53" t="s">
+        <v>738</v>
+      </c>
+      <c r="K53" t="s">
+        <v>739</v>
+      </c>
+      <c r="L53" t="s">
+        <v>740</v>
+      </c>
+      <c r="M53" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" t="s">
+        <v>405</v>
+      </c>
+      <c r="C54" t="s">
+        <v>406</v>
+      </c>
+      <c r="D54" t="s">
+        <v>407</v>
+      </c>
+      <c r="E54" t="s">
+        <v>408</v>
+      </c>
+      <c r="F54" t="s">
+        <v>103</v>
+      </c>
+      <c r="G54" t="s">
+        <v>980</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="J54" t="s">
+        <v>741</v>
+      </c>
+      <c r="K54" t="s">
+        <v>742</v>
+      </c>
+      <c r="L54" t="s">
+        <v>743</v>
+      </c>
+      <c r="M54" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" t="s">
+        <v>409</v>
+      </c>
+      <c r="C55" t="s">
+        <v>410</v>
+      </c>
+      <c r="D55" t="s">
+        <v>411</v>
+      </c>
+      <c r="E55" t="s">
+        <v>412</v>
+      </c>
+      <c r="F55" t="s">
+        <v>105</v>
+      </c>
+      <c r="G55" t="s">
+        <v>981</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="J55" t="s">
+        <v>744</v>
+      </c>
+      <c r="K55" t="s">
+        <v>745</v>
+      </c>
+      <c r="L55" t="s">
+        <v>746</v>
+      </c>
+      <c r="M55" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" t="s">
+        <v>413</v>
+      </c>
+      <c r="C56" t="s">
+        <v>414</v>
+      </c>
+      <c r="D56" t="s">
+        <v>415</v>
+      </c>
+      <c r="E56" t="s">
+        <v>416</v>
+      </c>
+      <c r="F56" t="s">
+        <v>107</v>
+      </c>
+      <c r="G56" t="s">
+        <v>982</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="J56" t="s">
+        <v>747</v>
+      </c>
+      <c r="K56" t="s">
+        <v>748</v>
+      </c>
+      <c r="L56" t="s">
+        <v>749</v>
+      </c>
+      <c r="M56" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" t="s">
+        <v>417</v>
+      </c>
+      <c r="C57" t="s">
+        <v>418</v>
+      </c>
+      <c r="D57" t="s">
+        <v>419</v>
+      </c>
+      <c r="E57" t="s">
+        <v>420</v>
+      </c>
+      <c r="F57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G57" t="s">
+        <v>983</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="J57" t="s">
+        <v>750</v>
+      </c>
+      <c r="K57" t="s">
+        <v>751</v>
+      </c>
+      <c r="L57" t="s">
+        <v>752</v>
+      </c>
+      <c r="M57" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" t="s">
+        <v>421</v>
+      </c>
+      <c r="C58" t="s">
+        <v>422</v>
+      </c>
+      <c r="D58" t="s">
+        <v>423</v>
+      </c>
+      <c r="E58" t="s">
+        <v>424</v>
+      </c>
+      <c r="F58" t="s">
+        <v>111</v>
+      </c>
+      <c r="G58" t="s">
+        <v>984</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="J58" t="s">
+        <v>753</v>
+      </c>
+      <c r="K58" t="s">
+        <v>754</v>
+      </c>
+      <c r="L58" t="s">
+        <v>755</v>
+      </c>
+      <c r="M58" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" t="s">
+        <v>425</v>
+      </c>
+      <c r="C59" t="s">
+        <v>426</v>
+      </c>
+      <c r="D59" t="s">
+        <v>427</v>
+      </c>
+      <c r="E59" t="s">
+        <v>428</v>
+      </c>
+      <c r="F59" t="s">
+        <v>113</v>
+      </c>
+      <c r="G59" t="s">
+        <v>985</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="J59" t="s">
+        <v>756</v>
+      </c>
+      <c r="K59" t="s">
+        <v>757</v>
+      </c>
+      <c r="L59" t="s">
+        <v>758</v>
+      </c>
+      <c r="M59" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" t="s">
+        <v>429</v>
+      </c>
+      <c r="C60" t="s">
+        <v>430</v>
+      </c>
+      <c r="D60" t="s">
+        <v>431</v>
+      </c>
+      <c r="E60" t="s">
+        <v>432</v>
+      </c>
+      <c r="F60" t="s">
+        <v>115</v>
+      </c>
+      <c r="G60" t="s">
+        <v>986</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="J60" t="s">
+        <v>759</v>
+      </c>
+      <c r="K60" t="s">
+        <v>760</v>
+      </c>
+      <c r="L60" t="s">
+        <v>761</v>
+      </c>
+      <c r="M60" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" t="s">
+        <v>433</v>
+      </c>
+      <c r="C61" t="s">
+        <v>434</v>
+      </c>
+      <c r="D61" t="s">
+        <v>435</v>
+      </c>
+      <c r="E61" t="s">
+        <v>436</v>
+      </c>
+      <c r="F61" t="s">
+        <v>117</v>
+      </c>
+      <c r="G61" t="s">
+        <v>987</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="J61" t="s">
+        <v>762</v>
+      </c>
+      <c r="K61" t="s">
+        <v>763</v>
+      </c>
+      <c r="L61" t="s">
+        <v>764</v>
+      </c>
+      <c r="M61" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" t="s">
+        <v>437</v>
+      </c>
+      <c r="C62" t="s">
+        <v>438</v>
+      </c>
+      <c r="D62" t="s">
+        <v>439</v>
+      </c>
+      <c r="E62" t="s">
+        <v>440</v>
+      </c>
+      <c r="F62" t="s">
+        <v>119</v>
+      </c>
+      <c r="G62" t="s">
+        <v>988</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="J62" t="s">
+        <v>765</v>
+      </c>
+      <c r="K62" t="s">
+        <v>766</v>
+      </c>
+      <c r="L62" t="s">
+        <v>767</v>
+      </c>
+      <c r="M62" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" t="s">
+        <v>441</v>
+      </c>
+      <c r="C63" t="s">
+        <v>442</v>
+      </c>
+      <c r="D63" t="s">
+        <v>443</v>
+      </c>
+      <c r="E63" t="s">
+        <v>444</v>
+      </c>
+      <c r="F63" t="s">
+        <v>121</v>
+      </c>
+      <c r="G63" t="s">
+        <v>768</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="K63" t="s">
+        <v>120</v>
+      </c>
+      <c r="L63" t="s">
+        <v>768</v>
+      </c>
+      <c r="M63" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" t="s">
+        <v>445</v>
+      </c>
+      <c r="C64" t="s">
+        <v>446</v>
+      </c>
+      <c r="D64" t="s">
         <v>260</v>
       </c>
-      <c r="D17" t="s">
-        <v>261</v>
-      </c>
-      <c r="E17" t="s">
-        <v>262</v>
-      </c>
-      <c r="F17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" t="s">
-        <v>640</v>
-      </c>
-      <c r="I17" t="s">
-        <v>641</v>
-      </c>
-      <c r="J17" t="s">
-        <v>642</v>
-      </c>
-      <c r="K17" t="s">
-        <v>881</v>
+      <c r="E64" t="s">
+        <v>447</v>
+      </c>
+      <c r="F64" t="s">
+        <v>123</v>
+      </c>
+      <c r="G64" t="s">
+        <v>989</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J64" t="s">
+        <v>769</v>
+      </c>
+      <c r="K64" t="s">
+        <v>770</v>
+      </c>
+      <c r="L64" t="s">
+        <v>771</v>
+      </c>
+      <c r="M64" t="s">
+        <v>906</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>263</v>
-      </c>
-      <c r="C18" t="s">
-        <v>264</v>
-      </c>
-      <c r="D18" t="s">
-        <v>265</v>
-      </c>
-      <c r="E18" t="s">
-        <v>266</v>
-      </c>
-      <c r="F18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" t="s">
-        <v>643</v>
-      </c>
-      <c r="I18" t="s">
-        <v>644</v>
-      </c>
-      <c r="J18" t="s">
-        <v>645</v>
-      </c>
-      <c r="K18" t="s">
-        <v>882</v>
+    <row r="65" spans="1:13">
+      <c r="A65" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" t="s">
+        <v>448</v>
+      </c>
+      <c r="C65" t="s">
+        <v>449</v>
+      </c>
+      <c r="D65" t="s">
+        <v>450</v>
+      </c>
+      <c r="E65" t="s">
+        <v>451</v>
+      </c>
+      <c r="F65" t="s">
+        <v>125</v>
+      </c>
+      <c r="G65" t="s">
+        <v>990</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="K65" t="s">
+        <v>124</v>
+      </c>
+      <c r="L65" t="s">
+        <v>772</v>
+      </c>
+      <c r="M65" t="s">
+        <v>772</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>267</v>
-      </c>
-      <c r="C19" t="s">
-        <v>268</v>
-      </c>
-      <c r="D19" t="s">
-        <v>269</v>
-      </c>
-      <c r="E19" t="s">
-        <v>270</v>
-      </c>
-      <c r="F19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J19" t="s">
-        <v>646</v>
-      </c>
-      <c r="K19" t="s">
-        <v>646</v>
+    <row r="66" spans="1:13">
+      <c r="A66" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" t="s">
+        <v>452</v>
+      </c>
+      <c r="C66" t="s">
+        <v>453</v>
+      </c>
+      <c r="D66" t="s">
+        <v>454</v>
+      </c>
+      <c r="E66" t="s">
+        <v>455</v>
+      </c>
+      <c r="F66" t="s">
+        <v>127</v>
+      </c>
+      <c r="G66" t="s">
+        <v>991</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J66" t="s">
+        <v>773</v>
+      </c>
+      <c r="K66" t="s">
+        <v>774</v>
+      </c>
+      <c r="L66" t="s">
+        <v>775</v>
+      </c>
+      <c r="M66" t="s">
+        <v>907</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>271</v>
-      </c>
-      <c r="C20" t="s">
-        <v>272</v>
-      </c>
-      <c r="D20" t="s">
-        <v>273</v>
-      </c>
-      <c r="E20" t="s">
-        <v>274</v>
-      </c>
-      <c r="F20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" t="s">
-        <v>647</v>
-      </c>
-      <c r="I20" t="s">
-        <v>648</v>
-      </c>
-      <c r="J20" t="s">
-        <v>649</v>
-      </c>
-      <c r="K20" t="s">
-        <v>883</v>
+    <row r="67" spans="1:13">
+      <c r="A67" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" t="s">
+        <v>456</v>
+      </c>
+      <c r="C67" t="s">
+        <v>457</v>
+      </c>
+      <c r="D67" t="s">
+        <v>458</v>
+      </c>
+      <c r="E67" t="s">
+        <v>459</v>
+      </c>
+      <c r="F67" t="s">
+        <v>129</v>
+      </c>
+      <c r="G67" t="s">
+        <v>992</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="K67" t="s">
+        <v>128</v>
+      </c>
+      <c r="L67" t="s">
+        <v>129</v>
+      </c>
+      <c r="M67" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>275</v>
-      </c>
-      <c r="C21" t="s">
-        <v>276</v>
-      </c>
-      <c r="D21" t="s">
-        <v>277</v>
-      </c>
-      <c r="E21" t="s">
-        <v>278</v>
-      </c>
-      <c r="F21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" t="s">
-        <v>650</v>
-      </c>
-      <c r="I21" t="s">
-        <v>651</v>
-      </c>
-      <c r="J21" t="s">
-        <v>652</v>
-      </c>
-      <c r="K21" t="s">
-        <v>884</v>
+    <row r="68" spans="1:13" ht="409.6">
+      <c r="A68" t="s">
+        <v>130</v>
+      </c>
+      <c r="B68" t="s">
+        <v>460</v>
+      </c>
+      <c r="C68" t="s">
+        <v>461</v>
+      </c>
+      <c r="D68" t="s">
+        <v>462</v>
+      </c>
+      <c r="E68" t="s">
+        <v>463</v>
+      </c>
+      <c r="F68" t="s">
+        <v>131</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="J68" t="s">
+        <v>776</v>
+      </c>
+      <c r="K68" t="s">
+        <v>777</v>
+      </c>
+      <c r="L68" t="s">
+        <v>778</v>
+      </c>
+      <c r="M68" t="s">
+        <v>908</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>279</v>
-      </c>
-      <c r="C22" t="s">
-        <v>280</v>
-      </c>
-      <c r="D22" t="s">
-        <v>281</v>
-      </c>
-      <c r="E22" t="s">
-        <v>282</v>
-      </c>
-      <c r="F22" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" t="s">
-        <v>653</v>
-      </c>
-      <c r="I22" t="s">
-        <v>654</v>
-      </c>
-      <c r="J22" t="s">
-        <v>655</v>
-      </c>
-      <c r="K22" t="s">
-        <v>885</v>
+    <row r="69" spans="1:13">
+      <c r="A69" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" t="s">
+        <v>464</v>
+      </c>
+      <c r="C69" t="s">
+        <v>465</v>
+      </c>
+      <c r="D69" t="s">
+        <v>466</v>
+      </c>
+      <c r="E69" t="s">
+        <v>467</v>
+      </c>
+      <c r="F69" t="s">
+        <v>133</v>
+      </c>
+      <c r="G69" t="s">
+        <v>993</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J69" t="s">
+        <v>779</v>
+      </c>
+      <c r="K69" t="s">
+        <v>780</v>
+      </c>
+      <c r="L69" t="s">
+        <v>781</v>
+      </c>
+      <c r="M69" t="s">
+        <v>909</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>283</v>
-      </c>
-      <c r="C23" t="s">
-        <v>284</v>
-      </c>
-      <c r="D23" t="s">
-        <v>285</v>
-      </c>
-      <c r="E23" t="s">
-        <v>286</v>
-      </c>
-      <c r="F23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" t="s">
-        <v>656</v>
-      </c>
-      <c r="I23" t="s">
-        <v>657</v>
-      </c>
-      <c r="J23" t="s">
-        <v>658</v>
-      </c>
-      <c r="K23" t="s">
-        <v>886</v>
+    <row r="70" spans="1:13">
+      <c r="A70" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" t="s">
+        <v>468</v>
+      </c>
+      <c r="C70" t="s">
+        <v>469</v>
+      </c>
+      <c r="D70" t="s">
+        <v>470</v>
+      </c>
+      <c r="E70" t="s">
+        <v>471</v>
+      </c>
+      <c r="F70" t="s">
+        <v>135</v>
+      </c>
+      <c r="G70" t="s">
+        <v>994</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J70" t="s">
+        <v>782</v>
+      </c>
+      <c r="K70" t="s">
+        <v>783</v>
+      </c>
+      <c r="L70" t="s">
+        <v>784</v>
+      </c>
+      <c r="M70" t="s">
+        <v>910</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>287</v>
-      </c>
-      <c r="C24" t="s">
-        <v>288</v>
-      </c>
-      <c r="D24" t="s">
-        <v>289</v>
-      </c>
-      <c r="E24" t="s">
-        <v>290</v>
-      </c>
-      <c r="F24" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" t="s">
-        <v>659</v>
-      </c>
-      <c r="I24" t="s">
-        <v>660</v>
-      </c>
-      <c r="J24" t="s">
-        <v>661</v>
-      </c>
-      <c r="K24" t="s">
-        <v>887</v>
+    <row r="71" spans="1:13">
+      <c r="A71" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71" t="s">
+        <v>472</v>
+      </c>
+      <c r="C71" t="s">
+        <v>473</v>
+      </c>
+      <c r="D71" t="s">
+        <v>474</v>
+      </c>
+      <c r="E71" t="s">
+        <v>475</v>
+      </c>
+      <c r="F71" t="s">
+        <v>137</v>
+      </c>
+      <c r="G71" t="s">
+        <v>995</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J71" t="s">
+        <v>785</v>
+      </c>
+      <c r="K71" t="s">
+        <v>786</v>
+      </c>
+      <c r="L71" t="s">
+        <v>787</v>
+      </c>
+      <c r="M71" t="s">
+        <v>911</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" t="s">
-        <v>291</v>
-      </c>
-      <c r="C25" t="s">
-        <v>292</v>
-      </c>
-      <c r="D25" t="s">
-        <v>293</v>
-      </c>
-      <c r="E25" t="s">
-        <v>294</v>
-      </c>
-      <c r="F25" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" t="s">
-        <v>662</v>
-      </c>
-      <c r="I25" t="s">
-        <v>663</v>
-      </c>
-      <c r="J25" t="s">
-        <v>664</v>
-      </c>
-      <c r="K25" t="s">
-        <v>888</v>
+    <row r="72" spans="1:13">
+      <c r="A72" t="s">
+        <v>138</v>
+      </c>
+      <c r="B72" t="s">
+        <v>476</v>
+      </c>
+      <c r="C72" t="s">
+        <v>477</v>
+      </c>
+      <c r="D72" t="s">
+        <v>478</v>
+      </c>
+      <c r="E72" t="s">
+        <v>479</v>
+      </c>
+      <c r="F72" t="s">
+        <v>139</v>
+      </c>
+      <c r="G72" t="s">
+        <v>996</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="J72" t="s">
+        <v>788</v>
+      </c>
+      <c r="K72" t="s">
+        <v>789</v>
+      </c>
+      <c r="L72" t="s">
+        <v>790</v>
+      </c>
+      <c r="M72" t="s">
+        <v>912</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" t="s">
-        <v>295</v>
-      </c>
-      <c r="C26" t="s">
-        <v>296</v>
-      </c>
-      <c r="D26" t="s">
-        <v>297</v>
-      </c>
-      <c r="E26" t="s">
-        <v>298</v>
-      </c>
-      <c r="F26" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" t="s">
-        <v>665</v>
-      </c>
-      <c r="I26" t="s">
-        <v>666</v>
-      </c>
-      <c r="J26" t="s">
-        <v>667</v>
-      </c>
-      <c r="K26" t="s">
-        <v>889</v>
+    <row r="73" spans="1:13">
+      <c r="A73" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" t="s">
+        <v>480</v>
+      </c>
+      <c r="C73" t="s">
+        <v>481</v>
+      </c>
+      <c r="D73" t="s">
+        <v>482</v>
+      </c>
+      <c r="E73" t="s">
+        <v>483</v>
+      </c>
+      <c r="F73" t="s">
+        <v>141</v>
+      </c>
+      <c r="G73" t="s">
+        <v>997</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="J73" t="s">
+        <v>791</v>
+      </c>
+      <c r="K73" t="s">
+        <v>792</v>
+      </c>
+      <c r="L73" t="s">
+        <v>793</v>
+      </c>
+      <c r="M73" t="s">
+        <v>793</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" t="s">
-        <v>299</v>
-      </c>
-      <c r="C27" t="s">
-        <v>300</v>
-      </c>
-      <c r="D27" t="s">
-        <v>301</v>
-      </c>
-      <c r="E27" t="s">
-        <v>302</v>
-      </c>
-      <c r="F27" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27" t="s">
-        <v>50</v>
-      </c>
-      <c r="J27" t="s">
-        <v>668</v>
-      </c>
-      <c r="K27" t="s">
-        <v>668</v>
+    <row r="74" spans="1:13">
+      <c r="A74" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" t="s">
+        <v>484</v>
+      </c>
+      <c r="C74" t="s">
+        <v>485</v>
+      </c>
+      <c r="D74" t="s">
+        <v>486</v>
+      </c>
+      <c r="E74" t="s">
+        <v>487</v>
+      </c>
+      <c r="F74" t="s">
+        <v>143</v>
+      </c>
+      <c r="G74" t="s">
+        <v>794</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="K74" t="s">
+        <v>142</v>
+      </c>
+      <c r="L74" t="s">
+        <v>794</v>
+      </c>
+      <c r="M74" t="s">
+        <v>794</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" t="s">
-        <v>303</v>
-      </c>
-      <c r="C28" t="s">
-        <v>304</v>
-      </c>
-      <c r="D28" t="s">
-        <v>305</v>
-      </c>
-      <c r="E28" t="s">
-        <v>306</v>
-      </c>
-      <c r="F28" t="s">
-        <v>53</v>
-      </c>
-      <c r="I28" t="s">
-        <v>52</v>
-      </c>
-      <c r="J28" t="s">
-        <v>669</v>
-      </c>
-      <c r="K28" t="s">
-        <v>669</v>
+    <row r="75" spans="1:13">
+      <c r="A75" t="s">
+        <v>144</v>
+      </c>
+      <c r="B75" t="s">
+        <v>488</v>
+      </c>
+      <c r="C75" t="s">
+        <v>489</v>
+      </c>
+      <c r="D75" t="s">
+        <v>490</v>
+      </c>
+      <c r="E75" t="s">
+        <v>491</v>
+      </c>
+      <c r="F75" t="s">
+        <v>145</v>
+      </c>
+      <c r="G75" t="s">
+        <v>998</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="J75" t="s">
+        <v>795</v>
+      </c>
+      <c r="K75" t="s">
+        <v>796</v>
+      </c>
+      <c r="L75" t="s">
+        <v>797</v>
+      </c>
+      <c r="M75" t="s">
+        <v>797</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" t="s">
-        <v>307</v>
-      </c>
-      <c r="C29" t="s">
-        <v>308</v>
-      </c>
-      <c r="D29" t="s">
-        <v>309</v>
-      </c>
-      <c r="E29" t="s">
-        <v>310</v>
-      </c>
-      <c r="F29" t="s">
-        <v>55</v>
-      </c>
-      <c r="H29" t="s">
-        <v>670</v>
-      </c>
-      <c r="I29" t="s">
-        <v>671</v>
-      </c>
-      <c r="J29" t="s">
-        <v>672</v>
-      </c>
-      <c r="K29" t="s">
-        <v>672</v>
+    <row r="76" spans="1:13">
+      <c r="A76" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76" t="s">
+        <v>492</v>
+      </c>
+      <c r="C76" t="s">
+        <v>493</v>
+      </c>
+      <c r="D76" t="s">
+        <v>494</v>
+      </c>
+      <c r="E76" t="s">
+        <v>495</v>
+      </c>
+      <c r="F76" t="s">
+        <v>147</v>
+      </c>
+      <c r="G76" t="s">
+        <v>999</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="J76" t="s">
+        <v>798</v>
+      </c>
+      <c r="K76" t="s">
+        <v>799</v>
+      </c>
+      <c r="L76" t="s">
+        <v>800</v>
+      </c>
+      <c r="M76" t="s">
+        <v>913</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" t="s">
-        <v>311</v>
-      </c>
-      <c r="C30" t="s">
-        <v>312</v>
-      </c>
-      <c r="D30" t="s">
-        <v>313</v>
-      </c>
-      <c r="E30" t="s">
-        <v>314</v>
-      </c>
-      <c r="F30" t="s">
-        <v>57</v>
-      </c>
-      <c r="H30" t="s">
-        <v>673</v>
-      </c>
-      <c r="I30" t="s">
-        <v>674</v>
-      </c>
-      <c r="J30" t="s">
-        <v>675</v>
-      </c>
-      <c r="K30" t="s">
-        <v>890</v>
+    <row r="77" spans="1:13">
+      <c r="A77" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" t="s">
+        <v>496</v>
+      </c>
+      <c r="C77" t="s">
+        <v>497</v>
+      </c>
+      <c r="D77" t="s">
+        <v>498</v>
+      </c>
+      <c r="E77" t="s">
+        <v>499</v>
+      </c>
+      <c r="F77" t="s">
+        <v>149</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="K77" t="s">
+        <v>148</v>
+      </c>
+      <c r="L77" t="s">
+        <v>801</v>
+      </c>
+      <c r="M77" t="s">
+        <v>801</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" t="s">
-        <v>315</v>
-      </c>
-      <c r="C31" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" t="s">
-        <v>316</v>
-      </c>
-      <c r="E31" t="s">
-        <v>317</v>
-      </c>
-      <c r="F31" t="s">
-        <v>59</v>
-      </c>
-      <c r="H31" t="s">
-        <v>676</v>
-      </c>
-      <c r="I31" t="s">
-        <v>58</v>
-      </c>
-      <c r="J31" t="s">
-        <v>677</v>
-      </c>
-      <c r="K31" t="s">
-        <v>677</v>
+    <row r="78" spans="1:13">
+      <c r="A78" t="s">
+        <v>150</v>
+      </c>
+      <c r="B78" t="s">
+        <v>500</v>
+      </c>
+      <c r="C78" t="s">
+        <v>501</v>
+      </c>
+      <c r="D78" t="s">
+        <v>502</v>
+      </c>
+      <c r="E78" t="s">
+        <v>503</v>
+      </c>
+      <c r="F78" t="s">
+        <v>151</v>
+      </c>
+      <c r="G78" t="s">
+        <v>802</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="K78" t="s">
+        <v>150</v>
+      </c>
+      <c r="L78" t="s">
+        <v>802</v>
+      </c>
+      <c r="M78" t="s">
+        <v>802</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="A32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" t="s">
-        <v>318</v>
-      </c>
-      <c r="C32" t="s">
-        <v>319</v>
-      </c>
-      <c r="D32" t="s">
-        <v>320</v>
-      </c>
-      <c r="E32" t="s">
-        <v>321</v>
-      </c>
-      <c r="F32" t="s">
-        <v>61</v>
-      </c>
-      <c r="H32" t="s">
-        <v>678</v>
-      </c>
-      <c r="I32" t="s">
-        <v>679</v>
-      </c>
-      <c r="J32" t="s">
-        <v>680</v>
-      </c>
-      <c r="K32" t="s">
-        <v>680</v>
+    <row r="79" spans="1:13">
+      <c r="A79" t="s">
+        <v>152</v>
+      </c>
+      <c r="B79" t="s">
+        <v>504</v>
+      </c>
+      <c r="C79" t="s">
+        <v>505</v>
+      </c>
+      <c r="D79" t="s">
+        <v>506</v>
+      </c>
+      <c r="E79" t="s">
+        <v>507</v>
+      </c>
+      <c r="F79" t="s">
+        <v>153</v>
+      </c>
+      <c r="G79" t="s">
+        <v>914</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="J79" t="s">
+        <v>803</v>
+      </c>
+      <c r="K79" t="s">
+        <v>804</v>
+      </c>
+      <c r="L79" t="s">
+        <v>805</v>
+      </c>
+      <c r="M79" t="s">
+        <v>914</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" t="s">
-        <v>322</v>
-      </c>
-      <c r="C33" t="s">
-        <v>323</v>
-      </c>
-      <c r="D33" t="s">
-        <v>324</v>
-      </c>
-      <c r="E33" t="s">
-        <v>325</v>
-      </c>
-      <c r="F33" t="s">
-        <v>63</v>
-      </c>
-      <c r="H33" t="s">
-        <v>681</v>
-      </c>
-      <c r="I33" t="s">
-        <v>682</v>
-      </c>
-      <c r="J33" t="s">
-        <v>683</v>
-      </c>
-      <c r="K33" t="s">
-        <v>683</v>
+    <row r="80" spans="1:13">
+      <c r="A80" t="s">
+        <v>154</v>
+      </c>
+      <c r="B80" t="s">
+        <v>508</v>
+      </c>
+      <c r="C80" t="s">
+        <v>509</v>
+      </c>
+      <c r="D80" t="s">
+        <v>510</v>
+      </c>
+      <c r="E80" t="s">
+        <v>511</v>
+      </c>
+      <c r="F80" t="s">
+        <v>155</v>
+      </c>
+      <c r="G80" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="J80" t="s">
+        <v>806</v>
+      </c>
+      <c r="K80" t="s">
+        <v>807</v>
+      </c>
+      <c r="L80" t="s">
+        <v>808</v>
+      </c>
+      <c r="M80" t="s">
+        <v>915</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" t="s">
-        <v>326</v>
-      </c>
-      <c r="C34" t="s">
-        <v>327</v>
-      </c>
-      <c r="D34" t="s">
-        <v>328</v>
-      </c>
-      <c r="E34" t="s">
-        <v>329</v>
-      </c>
-      <c r="F34" t="s">
-        <v>65</v>
-      </c>
-      <c r="H34" t="s">
-        <v>684</v>
-      </c>
-      <c r="I34" t="s">
-        <v>685</v>
-      </c>
-      <c r="J34" t="s">
-        <v>686</v>
-      </c>
-      <c r="K34" t="s">
-        <v>891</v>
+    <row r="81" spans="1:13">
+      <c r="A81" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81" t="s">
+        <v>512</v>
+      </c>
+      <c r="C81" t="s">
+        <v>513</v>
+      </c>
+      <c r="D81" t="s">
+        <v>514</v>
+      </c>
+      <c r="E81" t="s">
+        <v>515</v>
+      </c>
+      <c r="F81" t="s">
+        <v>157</v>
+      </c>
+      <c r="G81" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="J81" t="s">
+        <v>809</v>
+      </c>
+      <c r="K81" t="s">
+        <v>810</v>
+      </c>
+      <c r="L81" t="s">
+        <v>811</v>
+      </c>
+      <c r="M81" t="s">
+        <v>916</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" t="s">
-        <v>330</v>
-      </c>
-      <c r="C35" t="s">
-        <v>331</v>
-      </c>
-      <c r="D35" t="s">
-        <v>332</v>
-      </c>
-      <c r="E35" t="s">
-        <v>333</v>
-      </c>
-      <c r="F35" t="s">
-        <v>67</v>
-      </c>
-      <c r="H35" t="s">
-        <v>687</v>
-      </c>
-      <c r="I35" t="s">
-        <v>688</v>
-      </c>
-      <c r="J35" t="s">
-        <v>689</v>
-      </c>
-      <c r="K35" t="s">
-        <v>892</v>
+    <row r="82" spans="1:13">
+      <c r="A82" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" t="s">
+        <v>516</v>
+      </c>
+      <c r="C82" t="s">
+        <v>517</v>
+      </c>
+      <c r="D82" t="s">
+        <v>518</v>
+      </c>
+      <c r="E82" t="s">
+        <v>519</v>
+      </c>
+      <c r="F82" t="s">
+        <v>159</v>
+      </c>
+      <c r="G82" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="J82" t="s">
+        <v>812</v>
+      </c>
+      <c r="K82" t="s">
+        <v>813</v>
+      </c>
+      <c r="L82" t="s">
+        <v>814</v>
+      </c>
+      <c r="M82" t="s">
+        <v>814</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" t="s">
-        <v>334</v>
-      </c>
-      <c r="C36" t="s">
-        <v>335</v>
-      </c>
-      <c r="D36" t="s">
-        <v>336</v>
-      </c>
-      <c r="E36" t="s">
-        <v>337</v>
-      </c>
-      <c r="F36" t="s">
-        <v>69</v>
-      </c>
-      <c r="H36" t="s">
-        <v>690</v>
-      </c>
-      <c r="I36" t="s">
-        <v>691</v>
-      </c>
-      <c r="J36" t="s">
-        <v>692</v>
-      </c>
-      <c r="K36" t="s">
-        <v>692</v>
+    <row r="83" spans="1:13">
+      <c r="A83" t="s">
+        <v>160</v>
+      </c>
+      <c r="B83" t="s">
+        <v>520</v>
+      </c>
+      <c r="C83" t="s">
+        <v>521</v>
+      </c>
+      <c r="D83" t="s">
+        <v>522</v>
+      </c>
+      <c r="E83" t="s">
+        <v>523</v>
+      </c>
+      <c r="F83" t="s">
+        <v>161</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="J83" t="s">
+        <v>815</v>
+      </c>
+      <c r="K83" t="s">
+        <v>816</v>
+      </c>
+      <c r="L83" t="s">
+        <v>817</v>
+      </c>
+      <c r="M83" t="s">
+        <v>917</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" t="s">
-        <v>338</v>
-      </c>
-      <c r="C37" t="s">
-        <v>339</v>
-      </c>
-      <c r="D37" t="s">
-        <v>340</v>
-      </c>
-      <c r="E37" t="s">
-        <v>341</v>
-      </c>
-      <c r="F37" t="s">
-        <v>71</v>
-      </c>
-      <c r="H37" t="s">
-        <v>693</v>
-      </c>
-      <c r="I37" t="s">
-        <v>694</v>
-      </c>
-      <c r="J37" t="s">
-        <v>695</v>
-      </c>
-      <c r="K37" t="s">
-        <v>695</v>
+    <row r="84" spans="1:13">
+      <c r="A84" t="s">
+        <v>162</v>
+      </c>
+      <c r="B84" t="s">
+        <v>524</v>
+      </c>
+      <c r="C84" t="s">
+        <v>525</v>
+      </c>
+      <c r="D84" t="s">
+        <v>526</v>
+      </c>
+      <c r="E84" t="s">
+        <v>527</v>
+      </c>
+      <c r="F84" t="s">
+        <v>163</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="J84" t="s">
+        <v>818</v>
+      </c>
+      <c r="K84" t="s">
+        <v>819</v>
+      </c>
+      <c r="L84" t="s">
+        <v>820</v>
+      </c>
+      <c r="M84" t="s">
+        <v>918</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" t="s">
-        <v>342</v>
-      </c>
-      <c r="C38" t="s">
-        <v>343</v>
-      </c>
-      <c r="D38" t="s">
-        <v>344</v>
-      </c>
-      <c r="E38" t="s">
-        <v>345</v>
-      </c>
-      <c r="F38" t="s">
-        <v>73</v>
-      </c>
-      <c r="H38" t="s">
-        <v>696</v>
-      </c>
-      <c r="I38" t="s">
-        <v>697</v>
-      </c>
-      <c r="J38" t="s">
-        <v>698</v>
-      </c>
-      <c r="K38" t="s">
-        <v>893</v>
+    <row r="85" spans="1:13">
+      <c r="A85" t="s">
+        <v>164</v>
+      </c>
+      <c r="B85" t="s">
+        <v>528</v>
+      </c>
+      <c r="C85" t="s">
+        <v>529</v>
+      </c>
+      <c r="D85" t="s">
+        <v>530</v>
+      </c>
+      <c r="E85" t="s">
+        <v>531</v>
+      </c>
+      <c r="F85" t="s">
+        <v>165</v>
+      </c>
+      <c r="G85" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="J85" t="s">
+        <v>821</v>
+      </c>
+      <c r="K85" t="s">
+        <v>822</v>
+      </c>
+      <c r="L85" t="s">
+        <v>823</v>
+      </c>
+      <c r="M85" t="s">
+        <v>919</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
-      <c r="A39" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" t="s">
-        <v>346</v>
-      </c>
-      <c r="C39" t="s">
-        <v>347</v>
-      </c>
-      <c r="D39" t="s">
-        <v>348</v>
-      </c>
-      <c r="E39" t="s">
-        <v>349</v>
-      </c>
-      <c r="F39" t="s">
-        <v>75</v>
-      </c>
-      <c r="H39" t="s">
-        <v>699</v>
-      </c>
-      <c r="I39" t="s">
-        <v>700</v>
-      </c>
-      <c r="J39" t="s">
-        <v>701</v>
-      </c>
-      <c r="K39" t="s">
-        <v>894</v>
+    <row r="86" spans="1:13">
+      <c r="A86" t="s">
+        <v>166</v>
+      </c>
+      <c r="B86" t="s">
+        <v>532</v>
+      </c>
+      <c r="C86" t="s">
+        <v>533</v>
+      </c>
+      <c r="D86" t="s">
+        <v>534</v>
+      </c>
+      <c r="E86" t="s">
+        <v>535</v>
+      </c>
+      <c r="F86" t="s">
+        <v>167</v>
+      </c>
+      <c r="G86" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="J86" t="s">
+        <v>824</v>
+      </c>
+      <c r="K86" t="s">
+        <v>825</v>
+      </c>
+      <c r="L86" t="s">
+        <v>826</v>
+      </c>
+      <c r="M86" t="s">
+        <v>920</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
-      <c r="A40" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" t="s">
-        <v>350</v>
-      </c>
-      <c r="C40" t="s">
-        <v>351</v>
-      </c>
-      <c r="D40" t="s">
-        <v>352</v>
-      </c>
-      <c r="E40" t="s">
-        <v>353</v>
-      </c>
-      <c r="F40" t="s">
-        <v>77</v>
-      </c>
-      <c r="H40" t="s">
-        <v>702</v>
-      </c>
-      <c r="I40" t="s">
-        <v>703</v>
-      </c>
-      <c r="J40" t="s">
-        <v>704</v>
-      </c>
-      <c r="K40" t="s">
-        <v>704</v>
+    <row r="87" spans="1:13">
+      <c r="A87" t="s">
+        <v>168</v>
+      </c>
+      <c r="B87" t="s">
+        <v>536</v>
+      </c>
+      <c r="C87" t="s">
+        <v>537</v>
+      </c>
+      <c r="D87" t="s">
+        <v>538</v>
+      </c>
+      <c r="E87" t="s">
+        <v>539</v>
+      </c>
+      <c r="F87" t="s">
+        <v>169</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="J87" t="s">
+        <v>827</v>
+      </c>
+      <c r="K87" t="s">
+        <v>828</v>
+      </c>
+      <c r="L87" t="s">
+        <v>829</v>
+      </c>
+      <c r="M87" t="s">
+        <v>921</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" t="s">
-        <v>354</v>
-      </c>
-      <c r="C41" t="s">
-        <v>355</v>
-      </c>
-      <c r="D41" t="s">
-        <v>356</v>
-      </c>
-      <c r="E41" t="s">
-        <v>357</v>
-      </c>
-      <c r="F41" t="s">
-        <v>79</v>
-      </c>
-      <c r="H41" t="s">
-        <v>705</v>
-      </c>
-      <c r="I41" t="s">
-        <v>78</v>
-      </c>
-      <c r="J41" t="s">
-        <v>706</v>
-      </c>
-      <c r="K41" t="s">
-        <v>706</v>
+    <row r="88" spans="1:13">
+      <c r="A88" t="s">
+        <v>170</v>
+      </c>
+      <c r="B88" t="s">
+        <v>540</v>
+      </c>
+      <c r="C88" t="s">
+        <v>541</v>
+      </c>
+      <c r="D88" t="s">
+        <v>542</v>
+      </c>
+      <c r="E88" t="s">
+        <v>543</v>
+      </c>
+      <c r="F88" t="s">
+        <v>171</v>
+      </c>
+      <c r="G88" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="J88" t="s">
+        <v>830</v>
+      </c>
+      <c r="K88" t="s">
+        <v>831</v>
+      </c>
+      <c r="L88" t="s">
+        <v>832</v>
+      </c>
+      <c r="M88" t="s">
+        <v>922</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" t="s">
-        <v>358</v>
-      </c>
-      <c r="C42" t="s">
-        <v>359</v>
-      </c>
-      <c r="D42" t="s">
-        <v>360</v>
-      </c>
-      <c r="E42" t="s">
-        <v>361</v>
-      </c>
-      <c r="F42" t="s">
-        <v>81</v>
-      </c>
-      <c r="H42" t="s">
-        <v>707</v>
-      </c>
-      <c r="I42" t="s">
-        <v>708</v>
-      </c>
-      <c r="J42" t="s">
-        <v>709</v>
-      </c>
-      <c r="K42" t="s">
-        <v>895</v>
+    <row r="89" spans="1:13">
+      <c r="A89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B89" t="s">
+        <v>544</v>
+      </c>
+      <c r="C89" t="s">
+        <v>545</v>
+      </c>
+      <c r="D89" t="s">
+        <v>546</v>
+      </c>
+      <c r="E89" t="s">
+        <v>547</v>
+      </c>
+      <c r="F89" t="s">
+        <v>173</v>
+      </c>
+      <c r="G89" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="J89" t="s">
+        <v>833</v>
+      </c>
+      <c r="K89" t="s">
+        <v>834</v>
+      </c>
+      <c r="L89" t="s">
+        <v>835</v>
+      </c>
+      <c r="M89" t="s">
+        <v>923</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
-      <c r="A43" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" t="s">
-        <v>362</v>
-      </c>
-      <c r="C43" t="s">
-        <v>363</v>
-      </c>
-      <c r="D43" t="s">
-        <v>364</v>
-      </c>
-      <c r="E43" t="s">
-        <v>365</v>
-      </c>
-      <c r="F43" t="s">
-        <v>82</v>
-      </c>
-      <c r="H43" t="s">
-        <v>710</v>
-      </c>
-      <c r="I43" t="s">
-        <v>711</v>
-      </c>
-      <c r="J43" t="s">
-        <v>712</v>
-      </c>
-      <c r="K43" t="s">
-        <v>712</v>
+    <row r="90" spans="1:13">
+      <c r="A90" t="s">
+        <v>174</v>
+      </c>
+      <c r="B90" t="s">
+        <v>548</v>
+      </c>
+      <c r="C90" t="s">
+        <v>549</v>
+      </c>
+      <c r="D90" t="s">
+        <v>550</v>
+      </c>
+      <c r="E90" t="s">
+        <v>551</v>
+      </c>
+      <c r="F90" t="s">
+        <v>175</v>
+      </c>
+      <c r="G90" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="J90" t="s">
+        <v>836</v>
+      </c>
+      <c r="K90" t="s">
+        <v>837</v>
+      </c>
+      <c r="L90" t="s">
+        <v>838</v>
+      </c>
+      <c r="M90" t="s">
+        <v>838</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
-      <c r="A44" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" t="s">
-        <v>366</v>
-      </c>
-      <c r="C44" t="s">
-        <v>367</v>
-      </c>
-      <c r="D44" t="s">
-        <v>368</v>
-      </c>
-      <c r="E44" t="s">
-        <v>369</v>
-      </c>
-      <c r="F44" t="s">
-        <v>84</v>
-      </c>
-      <c r="H44" t="s">
-        <v>713</v>
-      </c>
-      <c r="I44" t="s">
-        <v>714</v>
-      </c>
-      <c r="J44" t="s">
-        <v>715</v>
-      </c>
-      <c r="K44" t="s">
-        <v>715</v>
+    <row r="91" spans="1:13">
+      <c r="A91" t="s">
+        <v>176</v>
+      </c>
+      <c r="B91" t="s">
+        <v>552</v>
+      </c>
+      <c r="C91" t="s">
+        <v>553</v>
+      </c>
+      <c r="D91" t="s">
+        <v>554</v>
+      </c>
+      <c r="E91" t="s">
+        <v>555</v>
+      </c>
+      <c r="F91" t="s">
+        <v>177</v>
+      </c>
+      <c r="G91" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="J91" t="s">
+        <v>839</v>
+      </c>
+      <c r="K91" t="s">
+        <v>840</v>
+      </c>
+      <c r="L91" t="s">
+        <v>841</v>
+      </c>
+      <c r="M91" t="s">
+        <v>924</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
-      <c r="A45" t="s">
-        <v>85</v>
-      </c>
-      <c r="B45" t="s">
-        <v>370</v>
-      </c>
-      <c r="C45" t="s">
-        <v>371</v>
-      </c>
-      <c r="D45" t="s">
-        <v>372</v>
-      </c>
-      <c r="E45" t="s">
-        <v>373</v>
-      </c>
-      <c r="F45" t="s">
-        <v>86</v>
-      </c>
-      <c r="H45" t="s">
-        <v>716</v>
-      </c>
-      <c r="I45" t="s">
-        <v>717</v>
-      </c>
-      <c r="J45" t="s">
-        <v>718</v>
-      </c>
-      <c r="K45" t="s">
-        <v>896</v>
+    <row r="92" spans="1:13">
+      <c r="A92" t="s">
+        <v>178</v>
+      </c>
+      <c r="B92" t="s">
+        <v>556</v>
+      </c>
+      <c r="C92" t="s">
+        <v>557</v>
+      </c>
+      <c r="D92" t="s">
+        <v>558</v>
+      </c>
+      <c r="E92" t="s">
+        <v>559</v>
+      </c>
+      <c r="F92" t="s">
+        <v>179</v>
+      </c>
+      <c r="G92" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="J92" t="s">
+        <v>842</v>
+      </c>
+      <c r="K92" t="s">
+        <v>178</v>
+      </c>
+      <c r="L92" t="s">
+        <v>843</v>
+      </c>
+      <c r="M92" t="s">
+        <v>843</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
-      <c r="A46" t="s">
-        <v>87</v>
-      </c>
-      <c r="B46" t="s">
-        <v>374</v>
-      </c>
-      <c r="C46" t="s">
-        <v>375</v>
-      </c>
-      <c r="D46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E46" t="s">
-        <v>377</v>
-      </c>
-      <c r="F46" t="s">
-        <v>88</v>
-      </c>
-      <c r="H46" t="s">
-        <v>719</v>
-      </c>
-      <c r="I46" t="s">
-        <v>720</v>
-      </c>
-      <c r="J46" t="s">
-        <v>721</v>
-      </c>
-      <c r="K46" t="s">
-        <v>897</v>
+    <row r="93" spans="1:13">
+      <c r="A93" t="s">
+        <v>180</v>
+      </c>
+      <c r="B93" t="s">
+        <v>560</v>
+      </c>
+      <c r="C93" t="s">
+        <v>561</v>
+      </c>
+      <c r="D93" t="s">
+        <v>562</v>
+      </c>
+      <c r="E93" t="s">
+        <v>563</v>
+      </c>
+      <c r="F93" t="s">
+        <v>181</v>
+      </c>
+      <c r="G93" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="J93" t="s">
+        <v>844</v>
+      </c>
+      <c r="K93" t="s">
+        <v>845</v>
+      </c>
+      <c r="L93" t="s">
+        <v>846</v>
+      </c>
+      <c r="M93" t="s">
+        <v>846</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" t="s">
-        <v>89</v>
-      </c>
-      <c r="B47" t="s">
-        <v>378</v>
-      </c>
-      <c r="C47" t="s">
-        <v>379</v>
-      </c>
-      <c r="D47" t="s">
-        <v>380</v>
-      </c>
-      <c r="E47" t="s">
-        <v>381</v>
-      </c>
-      <c r="F47" t="s">
-        <v>90</v>
-      </c>
-      <c r="H47" t="s">
-        <v>722</v>
-      </c>
-      <c r="I47" t="s">
-        <v>89</v>
-      </c>
-      <c r="J47" t="s">
-        <v>723</v>
-      </c>
-      <c r="K47" t="s">
-        <v>723</v>
+    <row r="94" spans="1:13">
+      <c r="A94" t="s">
+        <v>182</v>
+      </c>
+      <c r="B94" t="s">
+        <v>564</v>
+      </c>
+      <c r="C94" t="s">
+        <v>565</v>
+      </c>
+      <c r="D94" t="s">
+        <v>566</v>
+      </c>
+      <c r="E94" t="s">
+        <v>567</v>
+      </c>
+      <c r="F94" t="s">
+        <v>183</v>
+      </c>
+      <c r="G94" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="J94" t="s">
+        <v>847</v>
+      </c>
+      <c r="K94" t="s">
+        <v>848</v>
+      </c>
+      <c r="L94" t="s">
+        <v>849</v>
+      </c>
+      <c r="M94" t="s">
+        <v>849</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
-      <c r="A48" t="s">
-        <v>91</v>
-      </c>
-      <c r="B48" t="s">
-        <v>382</v>
-      </c>
-      <c r="C48" t="s">
-        <v>383</v>
-      </c>
-      <c r="D48" t="s">
-        <v>384</v>
-      </c>
-      <c r="E48" t="s">
-        <v>385</v>
-      </c>
-      <c r="F48" t="s">
-        <v>92</v>
-      </c>
-      <c r="H48" t="s">
-        <v>724</v>
-      </c>
-      <c r="I48" t="s">
-        <v>725</v>
-      </c>
-      <c r="J48" t="s">
-        <v>726</v>
-      </c>
-      <c r="K48" t="s">
-        <v>898</v>
+    <row r="95" spans="1:13">
+      <c r="A95" t="s">
+        <v>184</v>
+      </c>
+      <c r="B95" t="s">
+        <v>568</v>
+      </c>
+      <c r="C95" t="s">
+        <v>569</v>
+      </c>
+      <c r="D95" t="s">
+        <v>570</v>
+      </c>
+      <c r="E95" t="s">
+        <v>571</v>
+      </c>
+      <c r="F95" t="s">
+        <v>185</v>
+      </c>
+      <c r="G95" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="J95" t="s">
+        <v>850</v>
+      </c>
+      <c r="K95" t="s">
+        <v>851</v>
+      </c>
+      <c r="L95" t="s">
+        <v>852</v>
+      </c>
+      <c r="M95" t="s">
+        <v>925</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
-      <c r="A49" t="s">
-        <v>93</v>
-      </c>
-      <c r="B49" t="s">
-        <v>386</v>
-      </c>
-      <c r="C49" t="s">
-        <v>387</v>
-      </c>
-      <c r="D49" t="s">
-        <v>388</v>
-      </c>
-      <c r="E49" t="s">
-        <v>389</v>
-      </c>
-      <c r="F49" t="s">
-        <v>94</v>
-      </c>
-      <c r="H49" t="s">
-        <v>727</v>
-      </c>
-      <c r="I49" t="s">
-        <v>728</v>
-      </c>
-      <c r="J49" t="s">
-        <v>729</v>
-      </c>
-      <c r="K49" t="s">
-        <v>899</v>
+    <row r="96" spans="1:13">
+      <c r="A96" t="s">
+        <v>186</v>
+      </c>
+      <c r="B96" t="s">
+        <v>572</v>
+      </c>
+      <c r="C96" t="s">
+        <v>573</v>
+      </c>
+      <c r="D96" t="s">
+        <v>574</v>
+      </c>
+      <c r="E96" t="s">
+        <v>575</v>
+      </c>
+      <c r="F96" t="s">
+        <v>187</v>
+      </c>
+      <c r="G96" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="J96" t="s">
+        <v>853</v>
+      </c>
+      <c r="K96" t="s">
+        <v>854</v>
+      </c>
+      <c r="L96" t="s">
+        <v>855</v>
+      </c>
+      <c r="M96" t="s">
+        <v>926</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
-      <c r="A50" t="s">
-        <v>95</v>
-      </c>
-      <c r="B50" t="s">
-        <v>390</v>
-      </c>
-      <c r="C50" t="s">
-        <v>391</v>
-      </c>
-      <c r="D50" t="s">
-        <v>392</v>
-      </c>
-      <c r="E50" t="s">
-        <v>393</v>
-      </c>
-      <c r="F50" t="s">
-        <v>96</v>
-      </c>
-      <c r="H50" t="s">
-        <v>730</v>
-      </c>
-      <c r="I50" t="s">
-        <v>731</v>
-      </c>
-      <c r="J50" t="s">
-        <v>732</v>
-      </c>
-      <c r="K50" t="s">
-        <v>900</v>
+    <row r="97" spans="1:13">
+      <c r="A97" t="s">
+        <v>188</v>
+      </c>
+      <c r="B97" t="s">
+        <v>576</v>
+      </c>
+      <c r="C97" t="s">
+        <v>577</v>
+      </c>
+      <c r="D97" t="s">
+        <v>578</v>
+      </c>
+      <c r="E97" t="s">
+        <v>579</v>
+      </c>
+      <c r="F97" t="s">
+        <v>189</v>
+      </c>
+      <c r="G97" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="J97" t="s">
+        <v>856</v>
+      </c>
+      <c r="K97" t="s">
+        <v>857</v>
+      </c>
+      <c r="L97" t="s">
+        <v>858</v>
+      </c>
+      <c r="M97" t="s">
+        <v>927</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
-      <c r="A51" t="s">
-        <v>97</v>
-      </c>
-      <c r="B51" t="s">
-        <v>394</v>
-      </c>
-      <c r="C51" t="s">
-        <v>395</v>
-      </c>
-      <c r="D51" t="s">
-        <v>396</v>
-      </c>
-      <c r="E51" t="s">
-        <v>397</v>
-      </c>
-      <c r="F51" t="s">
-        <v>98</v>
-      </c>
-      <c r="H51" t="s">
-        <v>733</v>
-      </c>
-      <c r="I51" t="s">
-        <v>734</v>
-      </c>
-      <c r="J51" t="s">
-        <v>735</v>
-      </c>
-      <c r="K51" t="s">
-        <v>735</v>
+    <row r="98" spans="1:13">
+      <c r="A98" t="s">
+        <v>190</v>
+      </c>
+      <c r="B98" t="s">
+        <v>580</v>
+      </c>
+      <c r="C98" t="s">
+        <v>581</v>
+      </c>
+      <c r="D98" t="s">
+        <v>582</v>
+      </c>
+      <c r="E98" t="s">
+        <v>583</v>
+      </c>
+      <c r="F98" t="s">
+        <v>191</v>
+      </c>
+      <c r="G98" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="J98" t="s">
+        <v>859</v>
+      </c>
+      <c r="K98" t="s">
+        <v>860</v>
+      </c>
+      <c r="L98" t="s">
+        <v>861</v>
+      </c>
+      <c r="M98" t="s">
+        <v>928</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
-      <c r="A52" t="s">
-        <v>99</v>
-      </c>
-      <c r="B52" t="s">
-        <v>398</v>
-      </c>
-      <c r="C52" t="s">
-        <v>399</v>
-      </c>
-      <c r="D52" t="s">
-        <v>400</v>
-      </c>
-      <c r="E52" t="s">
-        <v>401</v>
-      </c>
-      <c r="F52" t="s">
-        <v>100</v>
-      </c>
-      <c r="H52" t="s">
-        <v>736</v>
-      </c>
-      <c r="I52" t="s">
-        <v>737</v>
-      </c>
-      <c r="J52" t="s">
-        <v>738</v>
-      </c>
-      <c r="K52" t="s">
-        <v>901</v>
+    <row r="99" spans="1:13" ht="285">
+      <c r="A99" t="s">
+        <v>192</v>
+      </c>
+      <c r="B99" t="s">
+        <v>584</v>
+      </c>
+      <c r="C99" t="s">
+        <v>585</v>
+      </c>
+      <c r="D99" t="s">
+        <v>586</v>
+      </c>
+      <c r="E99" t="s">
+        <v>587</v>
+      </c>
+      <c r="F99" t="s">
+        <v>193</v>
+      </c>
+      <c r="G99" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="J99" t="s">
+        <v>862</v>
+      </c>
+      <c r="K99" t="s">
+        <v>863</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="M99" t="s">
+        <v>929</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
-      <c r="A53" t="s">
-        <v>101</v>
-      </c>
-      <c r="B53" t="s">
-        <v>402</v>
-      </c>
-      <c r="C53" t="s">
-        <v>403</v>
-      </c>
-      <c r="D53" t="s">
-        <v>404</v>
-      </c>
-      <c r="E53" t="s">
-        <v>405</v>
-      </c>
-      <c r="F53" t="s">
-        <v>102</v>
-      </c>
-      <c r="H53" t="s">
-        <v>739</v>
-      </c>
-      <c r="I53" t="s">
-        <v>740</v>
-      </c>
-      <c r="J53" t="s">
-        <v>741</v>
-      </c>
-      <c r="K53" t="s">
-        <v>902</v>
+    <row r="100" spans="1:13">
+      <c r="A100" t="s">
+        <v>194</v>
+      </c>
+      <c r="B100" t="s">
+        <v>588</v>
+      </c>
+      <c r="C100" t="s">
+        <v>589</v>
+      </c>
+      <c r="D100" t="s">
+        <v>590</v>
+      </c>
+      <c r="E100" t="s">
+        <v>591</v>
+      </c>
+      <c r="F100" t="s">
+        <v>195</v>
+      </c>
+      <c r="G100" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="J100" t="s">
+        <v>865</v>
+      </c>
+      <c r="K100" t="s">
+        <v>866</v>
+      </c>
+      <c r="L100" t="s">
+        <v>867</v>
+      </c>
+      <c r="M100" t="s">
+        <v>867</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
-      <c r="A54" t="s">
-        <v>103</v>
-      </c>
-      <c r="B54" t="s">
-        <v>406</v>
-      </c>
-      <c r="C54" t="s">
-        <v>407</v>
-      </c>
-      <c r="D54" t="s">
-        <v>408</v>
-      </c>
-      <c r="E54" t="s">
-        <v>409</v>
-      </c>
-      <c r="F54" t="s">
-        <v>104</v>
-      </c>
-      <c r="H54" t="s">
-        <v>742</v>
-      </c>
-      <c r="I54" t="s">
-        <v>743</v>
-      </c>
-      <c r="J54" t="s">
-        <v>744</v>
-      </c>
-      <c r="K54" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" t="s">
-        <v>105</v>
-      </c>
-      <c r="B55" t="s">
-        <v>410</v>
-      </c>
-      <c r="C55" t="s">
-        <v>411</v>
-      </c>
-      <c r="D55" t="s">
-        <v>412</v>
-      </c>
-      <c r="E55" t="s">
-        <v>413</v>
-      </c>
-      <c r="F55" t="s">
-        <v>106</v>
-      </c>
-      <c r="H55" t="s">
-        <v>745</v>
-      </c>
-      <c r="I55" t="s">
-        <v>746</v>
-      </c>
-      <c r="J55" t="s">
-        <v>747</v>
-      </c>
-      <c r="K55" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" t="s">
-        <v>107</v>
-      </c>
-      <c r="B56" t="s">
-        <v>414</v>
-      </c>
-      <c r="C56" t="s">
-        <v>415</v>
-      </c>
-      <c r="D56" t="s">
-        <v>416</v>
-      </c>
-      <c r="E56" t="s">
-        <v>417</v>
-      </c>
-      <c r="F56" t="s">
-        <v>108</v>
-      </c>
-      <c r="H56" t="s">
-        <v>748</v>
-      </c>
-      <c r="I56" t="s">
-        <v>749</v>
-      </c>
-      <c r="J56" t="s">
-        <v>750</v>
-      </c>
-      <c r="K56" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" t="s">
-        <v>109</v>
-      </c>
-      <c r="B57" t="s">
-        <v>418</v>
-      </c>
-      <c r="C57" t="s">
-        <v>419</v>
-      </c>
-      <c r="D57" t="s">
-        <v>420</v>
-      </c>
-      <c r="E57" t="s">
-        <v>421</v>
-      </c>
-      <c r="F57" t="s">
-        <v>110</v>
-      </c>
-      <c r="H57" t="s">
-        <v>751</v>
-      </c>
-      <c r="I57" t="s">
-        <v>752</v>
-      </c>
-      <c r="J57" t="s">
-        <v>753</v>
-      </c>
-      <c r="K57" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" t="s">
-        <v>111</v>
-      </c>
-      <c r="B58" t="s">
-        <v>422</v>
-      </c>
-      <c r="C58" t="s">
-        <v>423</v>
-      </c>
-      <c r="D58" t="s">
-        <v>424</v>
-      </c>
-      <c r="E58" t="s">
-        <v>425</v>
-      </c>
-      <c r="F58" t="s">
-        <v>112</v>
-      </c>
-      <c r="H58" t="s">
-        <v>754</v>
-      </c>
-      <c r="I58" t="s">
-        <v>755</v>
-      </c>
-      <c r="J58" t="s">
-        <v>756</v>
-      </c>
-      <c r="K58" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" t="s">
-        <v>113</v>
-      </c>
-      <c r="B59" t="s">
-        <v>426</v>
-      </c>
-      <c r="C59" t="s">
-        <v>427</v>
-      </c>
-      <c r="D59" t="s">
-        <v>428</v>
-      </c>
-      <c r="E59" t="s">
-        <v>429</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
-      </c>
-      <c r="H59" t="s">
-        <v>757</v>
-      </c>
-      <c r="I59" t="s">
-        <v>758</v>
-      </c>
-      <c r="J59" t="s">
-        <v>759</v>
-      </c>
-      <c r="K59" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" t="s">
-        <v>115</v>
-      </c>
-      <c r="B60" t="s">
-        <v>430</v>
-      </c>
-      <c r="C60" t="s">
-        <v>431</v>
-      </c>
-      <c r="D60" t="s">
-        <v>432</v>
-      </c>
-      <c r="E60" t="s">
-        <v>433</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
-      </c>
-      <c r="H60" t="s">
-        <v>760</v>
-      </c>
-      <c r="I60" t="s">
-        <v>761</v>
-      </c>
-      <c r="J60" t="s">
-        <v>762</v>
-      </c>
-      <c r="K60" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" t="s">
-        <v>117</v>
-      </c>
-      <c r="B61" t="s">
-        <v>434</v>
-      </c>
-      <c r="C61" t="s">
-        <v>435</v>
-      </c>
-      <c r="D61" t="s">
-        <v>436</v>
-      </c>
-      <c r="E61" t="s">
-        <v>437</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
-      </c>
-      <c r="H61" t="s">
-        <v>763</v>
-      </c>
-      <c r="I61" t="s">
-        <v>764</v>
-      </c>
-      <c r="J61" t="s">
-        <v>765</v>
-      </c>
-      <c r="K61" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" t="s">
-        <v>119</v>
-      </c>
-      <c r="B62" t="s">
-        <v>438</v>
-      </c>
-      <c r="C62" t="s">
-        <v>439</v>
-      </c>
-      <c r="D62" t="s">
-        <v>440</v>
-      </c>
-      <c r="E62" t="s">
-        <v>441</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
-      </c>
-      <c r="H62" t="s">
-        <v>766</v>
-      </c>
-      <c r="I62" t="s">
-        <v>767</v>
-      </c>
-      <c r="J62" t="s">
-        <v>768</v>
-      </c>
-      <c r="K62" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" t="s">
-        <v>121</v>
-      </c>
-      <c r="B63" t="s">
-        <v>442</v>
-      </c>
-      <c r="C63" t="s">
-        <v>443</v>
-      </c>
-      <c r="D63" t="s">
-        <v>444</v>
-      </c>
-      <c r="E63" t="s">
-        <v>445</v>
-      </c>
-      <c r="F63" t="s">
-        <v>122</v>
-      </c>
-      <c r="I63" t="s">
-        <v>121</v>
-      </c>
-      <c r="J63" t="s">
-        <v>769</v>
-      </c>
-      <c r="K63" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" t="s">
-        <v>123</v>
-      </c>
-      <c r="B64" t="s">
-        <v>446</v>
-      </c>
-      <c r="C64" t="s">
-        <v>447</v>
-      </c>
-      <c r="D64" t="s">
-        <v>261</v>
-      </c>
-      <c r="E64" t="s">
-        <v>448</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
-      </c>
-      <c r="H64" t="s">
-        <v>770</v>
-      </c>
-      <c r="I64" t="s">
-        <v>771</v>
-      </c>
-      <c r="J64" t="s">
-        <v>772</v>
-      </c>
-      <c r="K64" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" t="s">
-        <v>125</v>
-      </c>
-      <c r="B65" t="s">
-        <v>449</v>
-      </c>
-      <c r="C65" t="s">
-        <v>450</v>
-      </c>
-      <c r="D65" t="s">
-        <v>451</v>
-      </c>
-      <c r="E65" t="s">
-        <v>452</v>
-      </c>
-      <c r="F65" t="s">
-        <v>126</v>
-      </c>
-      <c r="I65" t="s">
-        <v>125</v>
-      </c>
-      <c r="J65" t="s">
-        <v>773</v>
-      </c>
-      <c r="K65" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" t="s">
-        <v>127</v>
-      </c>
-      <c r="B66" t="s">
-        <v>453</v>
-      </c>
-      <c r="C66" t="s">
-        <v>454</v>
-      </c>
-      <c r="D66" t="s">
-        <v>455</v>
-      </c>
-      <c r="E66" t="s">
-        <v>456</v>
-      </c>
-      <c r="F66" t="s">
-        <v>128</v>
-      </c>
-      <c r="H66" t="s">
-        <v>774</v>
-      </c>
-      <c r="I66" t="s">
-        <v>775</v>
-      </c>
-      <c r="J66" t="s">
-        <v>776</v>
-      </c>
-      <c r="K66" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" t="s">
-        <v>129</v>
-      </c>
-      <c r="B67" t="s">
-        <v>457</v>
-      </c>
-      <c r="C67" t="s">
-        <v>458</v>
-      </c>
-      <c r="D67" t="s">
-        <v>459</v>
-      </c>
-      <c r="E67" t="s">
-        <v>460</v>
-      </c>
-      <c r="F67" t="s">
-        <v>130</v>
-      </c>
-      <c r="I67" t="s">
-        <v>129</v>
-      </c>
-      <c r="J67" t="s">
-        <v>130</v>
-      </c>
-      <c r="K67" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" t="s">
-        <v>131</v>
-      </c>
-      <c r="B68" t="s">
-        <v>461</v>
-      </c>
-      <c r="C68" t="s">
-        <v>462</v>
-      </c>
-      <c r="D68" t="s">
-        <v>463</v>
-      </c>
-      <c r="E68" t="s">
-        <v>464</v>
-      </c>
-      <c r="F68" t="s">
-        <v>132</v>
-      </c>
-      <c r="H68" t="s">
-        <v>777</v>
-      </c>
-      <c r="I68" t="s">
-        <v>778</v>
-      </c>
-      <c r="J68" t="s">
-        <v>779</v>
-      </c>
-      <c r="K68" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" t="s">
-        <v>133</v>
-      </c>
-      <c r="B69" t="s">
-        <v>465</v>
-      </c>
-      <c r="C69" t="s">
-        <v>466</v>
-      </c>
-      <c r="D69" t="s">
-        <v>467</v>
-      </c>
-      <c r="E69" t="s">
-        <v>468</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
-      </c>
-      <c r="H69" t="s">
-        <v>780</v>
-      </c>
-      <c r="I69" t="s">
-        <v>781</v>
-      </c>
-      <c r="J69" t="s">
-        <v>782</v>
-      </c>
-      <c r="K69" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" t="s">
-        <v>135</v>
-      </c>
-      <c r="B70" t="s">
-        <v>469</v>
-      </c>
-      <c r="C70" t="s">
-        <v>470</v>
-      </c>
-      <c r="D70" t="s">
-        <v>471</v>
-      </c>
-      <c r="E70" t="s">
-        <v>472</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
-      </c>
-      <c r="H70" t="s">
-        <v>783</v>
-      </c>
-      <c r="I70" t="s">
-        <v>784</v>
-      </c>
-      <c r="J70" t="s">
-        <v>785</v>
-      </c>
-      <c r="K70" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" t="s">
-        <v>137</v>
-      </c>
-      <c r="B71" t="s">
-        <v>473</v>
-      </c>
-      <c r="C71" t="s">
-        <v>474</v>
-      </c>
-      <c r="D71" t="s">
-        <v>475</v>
-      </c>
-      <c r="E71" t="s">
-        <v>476</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
-      </c>
-      <c r="H71" t="s">
-        <v>786</v>
-      </c>
-      <c r="I71" t="s">
-        <v>787</v>
-      </c>
-      <c r="J71" t="s">
-        <v>788</v>
-      </c>
-      <c r="K71" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" t="s">
-        <v>139</v>
-      </c>
-      <c r="B72" t="s">
-        <v>477</v>
-      </c>
-      <c r="C72" t="s">
-        <v>478</v>
-      </c>
-      <c r="D72" t="s">
-        <v>479</v>
-      </c>
-      <c r="E72" t="s">
-        <v>480</v>
-      </c>
-      <c r="F72" t="s">
-        <v>140</v>
-      </c>
-      <c r="H72" t="s">
-        <v>789</v>
-      </c>
-      <c r="I72" t="s">
-        <v>790</v>
-      </c>
-      <c r="J72" t="s">
-        <v>791</v>
-      </c>
-      <c r="K72" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" t="s">
-        <v>141</v>
-      </c>
-      <c r="B73" t="s">
-        <v>481</v>
-      </c>
-      <c r="C73" t="s">
-        <v>482</v>
-      </c>
-      <c r="D73" t="s">
-        <v>483</v>
-      </c>
-      <c r="E73" t="s">
-        <v>484</v>
-      </c>
-      <c r="F73" t="s">
-        <v>142</v>
-      </c>
-      <c r="H73" t="s">
-        <v>792</v>
-      </c>
-      <c r="I73" t="s">
-        <v>793</v>
-      </c>
-      <c r="J73" t="s">
-        <v>794</v>
-      </c>
-      <c r="K73" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" t="s">
-        <v>143</v>
-      </c>
-      <c r="B74" t="s">
-        <v>485</v>
-      </c>
-      <c r="C74" t="s">
-        <v>486</v>
-      </c>
-      <c r="D74" t="s">
-        <v>487</v>
-      </c>
-      <c r="E74" t="s">
-        <v>488</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
-      </c>
-      <c r="I74" t="s">
-        <v>143</v>
-      </c>
-      <c r="J74" t="s">
-        <v>795</v>
-      </c>
-      <c r="K74" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" t="s">
-        <v>145</v>
-      </c>
-      <c r="B75" t="s">
-        <v>489</v>
-      </c>
-      <c r="C75" t="s">
-        <v>490</v>
-      </c>
-      <c r="D75" t="s">
-        <v>491</v>
-      </c>
-      <c r="E75" t="s">
-        <v>492</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
-      </c>
-      <c r="H75" t="s">
-        <v>796</v>
-      </c>
-      <c r="I75" t="s">
-        <v>797</v>
-      </c>
-      <c r="J75" t="s">
-        <v>798</v>
-      </c>
-      <c r="K75" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" t="s">
-        <v>147</v>
-      </c>
-      <c r="B76" t="s">
-        <v>493</v>
-      </c>
-      <c r="C76" t="s">
-        <v>494</v>
-      </c>
-      <c r="D76" t="s">
-        <v>495</v>
-      </c>
-      <c r="E76" t="s">
-        <v>496</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
-      </c>
-      <c r="H76" t="s">
-        <v>799</v>
-      </c>
-      <c r="I76" t="s">
-        <v>800</v>
-      </c>
-      <c r="J76" t="s">
-        <v>801</v>
-      </c>
-      <c r="K76" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" t="s">
-        <v>149</v>
-      </c>
-      <c r="B77" t="s">
-        <v>497</v>
-      </c>
-      <c r="C77" t="s">
-        <v>498</v>
-      </c>
-      <c r="D77" t="s">
-        <v>499</v>
-      </c>
-      <c r="E77" t="s">
-        <v>500</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
-      </c>
-      <c r="I77" t="s">
-        <v>149</v>
-      </c>
-      <c r="J77" t="s">
-        <v>802</v>
-      </c>
-      <c r="K77" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" t="s">
-        <v>151</v>
-      </c>
-      <c r="B78" t="s">
-        <v>501</v>
-      </c>
-      <c r="C78" t="s">
-        <v>502</v>
-      </c>
-      <c r="D78" t="s">
-        <v>503</v>
-      </c>
-      <c r="E78" t="s">
-        <v>504</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
-      </c>
-      <c r="I78" t="s">
-        <v>151</v>
-      </c>
-      <c r="J78" t="s">
-        <v>803</v>
-      </c>
-      <c r="K78" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" t="s">
-        <v>153</v>
-      </c>
-      <c r="B79" t="s">
-        <v>505</v>
-      </c>
-      <c r="C79" t="s">
-        <v>506</v>
-      </c>
-      <c r="D79" t="s">
-        <v>507</v>
-      </c>
-      <c r="E79" t="s">
-        <v>508</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
-      </c>
-      <c r="H79" t="s">
-        <v>804</v>
-      </c>
-      <c r="I79" t="s">
-        <v>805</v>
-      </c>
-      <c r="J79" t="s">
-        <v>806</v>
-      </c>
-      <c r="K79" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" t="s">
-        <v>155</v>
-      </c>
-      <c r="B80" t="s">
-        <v>509</v>
-      </c>
-      <c r="C80" t="s">
-        <v>510</v>
-      </c>
-      <c r="D80" t="s">
-        <v>511</v>
-      </c>
-      <c r="E80" t="s">
-        <v>512</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
-      </c>
-      <c r="H80" t="s">
-        <v>807</v>
-      </c>
-      <c r="I80" t="s">
-        <v>808</v>
-      </c>
-      <c r="J80" t="s">
-        <v>809</v>
-      </c>
-      <c r="K80" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81" t="s">
-        <v>157</v>
-      </c>
-      <c r="B81" t="s">
-        <v>513</v>
-      </c>
-      <c r="C81" t="s">
-        <v>514</v>
-      </c>
-      <c r="D81" t="s">
-        <v>515</v>
-      </c>
-      <c r="E81" t="s">
-        <v>516</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
-      </c>
-      <c r="H81" t="s">
-        <v>810</v>
-      </c>
-      <c r="I81" t="s">
-        <v>811</v>
-      </c>
-      <c r="J81" t="s">
-        <v>812</v>
-      </c>
-      <c r="K81" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" t="s">
-        <v>159</v>
-      </c>
-      <c r="B82" t="s">
-        <v>517</v>
-      </c>
-      <c r="C82" t="s">
-        <v>518</v>
-      </c>
-      <c r="D82" t="s">
-        <v>519</v>
-      </c>
-      <c r="E82" t="s">
-        <v>520</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
-      </c>
-      <c r="H82" t="s">
-        <v>813</v>
-      </c>
-      <c r="I82" t="s">
-        <v>814</v>
-      </c>
-      <c r="J82" t="s">
-        <v>815</v>
-      </c>
-      <c r="K82" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" t="s">
-        <v>161</v>
-      </c>
-      <c r="B83" t="s">
-        <v>521</v>
-      </c>
-      <c r="C83" t="s">
-        <v>522</v>
-      </c>
-      <c r="D83" t="s">
-        <v>523</v>
-      </c>
-      <c r="E83" t="s">
-        <v>524</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
-      </c>
-      <c r="H83" t="s">
-        <v>816</v>
-      </c>
-      <c r="I83" t="s">
-        <v>817</v>
-      </c>
-      <c r="J83" t="s">
-        <v>818</v>
-      </c>
-      <c r="K83" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84" t="s">
-        <v>163</v>
-      </c>
-      <c r="B84" t="s">
-        <v>525</v>
-      </c>
-      <c r="C84" t="s">
-        <v>526</v>
-      </c>
-      <c r="D84" t="s">
-        <v>527</v>
-      </c>
-      <c r="E84" t="s">
-        <v>528</v>
-      </c>
-      <c r="F84" t="s">
-        <v>164</v>
-      </c>
-      <c r="H84" t="s">
-        <v>819</v>
-      </c>
-      <c r="I84" t="s">
-        <v>820</v>
-      </c>
-      <c r="J84" t="s">
-        <v>821</v>
-      </c>
-      <c r="K84" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85" t="s">
-        <v>165</v>
-      </c>
-      <c r="B85" t="s">
-        <v>529</v>
-      </c>
-      <c r="C85" t="s">
-        <v>530</v>
-      </c>
-      <c r="D85" t="s">
-        <v>531</v>
-      </c>
-      <c r="E85" t="s">
-        <v>532</v>
-      </c>
-      <c r="F85" t="s">
-        <v>166</v>
-      </c>
-      <c r="H85" t="s">
-        <v>822</v>
-      </c>
-      <c r="I85" t="s">
-        <v>823</v>
-      </c>
-      <c r="J85" t="s">
-        <v>824</v>
-      </c>
-      <c r="K85" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86" t="s">
-        <v>167</v>
-      </c>
-      <c r="B86" t="s">
-        <v>533</v>
-      </c>
-      <c r="C86" t="s">
-        <v>534</v>
-      </c>
-      <c r="D86" t="s">
-        <v>535</v>
-      </c>
-      <c r="E86" t="s">
-        <v>536</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
-      </c>
-      <c r="H86" t="s">
-        <v>825</v>
-      </c>
-      <c r="I86" t="s">
-        <v>826</v>
-      </c>
-      <c r="J86" t="s">
-        <v>827</v>
-      </c>
-      <c r="K86" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87" t="s">
-        <v>169</v>
-      </c>
-      <c r="B87" t="s">
-        <v>537</v>
-      </c>
-      <c r="C87" t="s">
-        <v>538</v>
-      </c>
-      <c r="D87" t="s">
-        <v>539</v>
-      </c>
-      <c r="E87" t="s">
-        <v>540</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
-      </c>
-      <c r="H87" t="s">
-        <v>828</v>
-      </c>
-      <c r="I87" t="s">
-        <v>829</v>
-      </c>
-      <c r="J87" t="s">
-        <v>830</v>
-      </c>
-      <c r="K87" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" t="s">
-        <v>171</v>
-      </c>
-      <c r="B88" t="s">
-        <v>541</v>
-      </c>
-      <c r="C88" t="s">
-        <v>542</v>
-      </c>
-      <c r="D88" t="s">
-        <v>543</v>
-      </c>
-      <c r="E88" t="s">
-        <v>544</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
-      </c>
-      <c r="H88" t="s">
-        <v>831</v>
-      </c>
-      <c r="I88" t="s">
-        <v>832</v>
-      </c>
-      <c r="J88" t="s">
-        <v>833</v>
-      </c>
-      <c r="K88" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89" t="s">
-        <v>173</v>
-      </c>
-      <c r="B89" t="s">
-        <v>545</v>
-      </c>
-      <c r="C89" t="s">
-        <v>546</v>
-      </c>
-      <c r="D89" t="s">
-        <v>547</v>
-      </c>
-      <c r="E89" t="s">
-        <v>548</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
-      </c>
-      <c r="H89" t="s">
-        <v>834</v>
-      </c>
-      <c r="I89" t="s">
-        <v>835</v>
-      </c>
-      <c r="J89" t="s">
-        <v>836</v>
-      </c>
-      <c r="K89" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90" t="s">
-        <v>175</v>
-      </c>
-      <c r="B90" t="s">
-        <v>549</v>
-      </c>
-      <c r="C90" t="s">
-        <v>550</v>
-      </c>
-      <c r="D90" t="s">
-        <v>551</v>
-      </c>
-      <c r="E90" t="s">
-        <v>552</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
-      </c>
-      <c r="H90" t="s">
-        <v>837</v>
-      </c>
-      <c r="I90" t="s">
-        <v>838</v>
-      </c>
-      <c r="J90" t="s">
-        <v>839</v>
-      </c>
-      <c r="K90" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91" t="s">
-        <v>177</v>
-      </c>
-      <c r="B91" t="s">
-        <v>553</v>
-      </c>
-      <c r="C91" t="s">
-        <v>554</v>
-      </c>
-      <c r="D91" t="s">
-        <v>555</v>
-      </c>
-      <c r="E91" t="s">
-        <v>556</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
-      </c>
-      <c r="H91" t="s">
-        <v>840</v>
-      </c>
-      <c r="I91" t="s">
-        <v>841</v>
-      </c>
-      <c r="J91" t="s">
-        <v>842</v>
-      </c>
-      <c r="K91" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92" t="s">
-        <v>179</v>
-      </c>
-      <c r="B92" t="s">
-        <v>557</v>
-      </c>
-      <c r="C92" t="s">
-        <v>558</v>
-      </c>
-      <c r="D92" t="s">
-        <v>559</v>
-      </c>
-      <c r="E92" t="s">
-        <v>560</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
-      </c>
-      <c r="H92" t="s">
-        <v>843</v>
-      </c>
-      <c r="I92" t="s">
-        <v>179</v>
-      </c>
-      <c r="J92" t="s">
-        <v>844</v>
-      </c>
-      <c r="K92" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93" t="s">
-        <v>181</v>
-      </c>
-      <c r="B93" t="s">
-        <v>561</v>
-      </c>
-      <c r="C93" t="s">
-        <v>562</v>
-      </c>
-      <c r="D93" t="s">
-        <v>563</v>
-      </c>
-      <c r="E93" t="s">
-        <v>564</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
-      </c>
-      <c r="H93" t="s">
-        <v>845</v>
-      </c>
-      <c r="I93" t="s">
-        <v>846</v>
-      </c>
-      <c r="J93" t="s">
-        <v>847</v>
-      </c>
-      <c r="K93" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94" t="s">
-        <v>183</v>
-      </c>
-      <c r="B94" t="s">
-        <v>565</v>
-      </c>
-      <c r="C94" t="s">
-        <v>566</v>
-      </c>
-      <c r="D94" t="s">
-        <v>567</v>
-      </c>
-      <c r="E94" t="s">
-        <v>568</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
-      </c>
-      <c r="H94" t="s">
-        <v>848</v>
-      </c>
-      <c r="I94" t="s">
-        <v>849</v>
-      </c>
-      <c r="J94" t="s">
-        <v>850</v>
-      </c>
-      <c r="K94" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95" t="s">
-        <v>185</v>
-      </c>
-      <c r="B95" t="s">
-        <v>569</v>
-      </c>
-      <c r="C95" t="s">
-        <v>570</v>
-      </c>
-      <c r="D95" t="s">
-        <v>571</v>
-      </c>
-      <c r="E95" t="s">
-        <v>572</v>
-      </c>
-      <c r="F95" t="s">
-        <v>186</v>
-      </c>
-      <c r="H95" t="s">
-        <v>851</v>
-      </c>
-      <c r="I95" t="s">
-        <v>852</v>
-      </c>
-      <c r="J95" t="s">
-        <v>853</v>
-      </c>
-      <c r="K95" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96" t="s">
-        <v>187</v>
-      </c>
-      <c r="B96" t="s">
-        <v>573</v>
-      </c>
-      <c r="C96" t="s">
-        <v>574</v>
-      </c>
-      <c r="D96" t="s">
-        <v>575</v>
-      </c>
-      <c r="E96" t="s">
-        <v>576</v>
-      </c>
-      <c r="F96" t="s">
-        <v>188</v>
-      </c>
-      <c r="H96" t="s">
-        <v>854</v>
-      </c>
-      <c r="I96" t="s">
-        <v>855</v>
-      </c>
-      <c r="J96" t="s">
-        <v>856</v>
-      </c>
-      <c r="K96" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" t="s">
-        <v>189</v>
-      </c>
-      <c r="B97" t="s">
-        <v>577</v>
-      </c>
-      <c r="C97" t="s">
-        <v>578</v>
-      </c>
-      <c r="D97" t="s">
-        <v>579</v>
-      </c>
-      <c r="E97" t="s">
-        <v>580</v>
-      </c>
-      <c r="F97" t="s">
-        <v>190</v>
-      </c>
-      <c r="H97" t="s">
-        <v>857</v>
-      </c>
-      <c r="I97" t="s">
-        <v>858</v>
-      </c>
-      <c r="J97" t="s">
-        <v>859</v>
-      </c>
-      <c r="K97" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
-      <c r="A98" t="s">
-        <v>191</v>
-      </c>
-      <c r="B98" t="s">
-        <v>581</v>
-      </c>
-      <c r="C98" t="s">
-        <v>582</v>
-      </c>
-      <c r="D98" t="s">
-        <v>583</v>
-      </c>
-      <c r="E98" t="s">
-        <v>584</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
-      </c>
-      <c r="H98" t="s">
-        <v>860</v>
-      </c>
-      <c r="I98" t="s">
-        <v>861</v>
-      </c>
-      <c r="J98" t="s">
-        <v>862</v>
-      </c>
-      <c r="K98" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="285">
-      <c r="A99" t="s">
-        <v>193</v>
-      </c>
-      <c r="B99" t="s">
-        <v>585</v>
-      </c>
-      <c r="C99" t="s">
-        <v>586</v>
-      </c>
-      <c r="D99" t="s">
-        <v>587</v>
-      </c>
-      <c r="E99" t="s">
-        <v>588</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
-      </c>
-      <c r="H99" t="s">
-        <v>863</v>
-      </c>
-      <c r="I99" t="s">
-        <v>864</v>
-      </c>
-      <c r="J99" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="K99" t="s">
+    <row r="101" spans="1:13">
+      <c r="A101" t="s">
+        <v>196</v>
+      </c>
+      <c r="B101" t="s">
+        <v>592</v>
+      </c>
+      <c r="C101" t="s">
+        <v>593</v>
+      </c>
+      <c r="D101" t="s">
+        <v>594</v>
+      </c>
+      <c r="E101" t="s">
+        <v>595</v>
+      </c>
+      <c r="F101" t="s">
+        <v>197</v>
+      </c>
+      <c r="G101" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J101" t="s">
+        <v>868</v>
+      </c>
+      <c r="K101" t="s">
+        <v>869</v>
+      </c>
+      <c r="L101" t="s">
+        <v>870</v>
+      </c>
+      <c r="M101" t="s">
         <v>930</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
-      <c r="A100" t="s">
-        <v>195</v>
-      </c>
-      <c r="B100" t="s">
-        <v>589</v>
-      </c>
-      <c r="C100" t="s">
-        <v>590</v>
-      </c>
-      <c r="D100" t="s">
-        <v>591</v>
-      </c>
-      <c r="E100" t="s">
-        <v>592</v>
-      </c>
-      <c r="F100" t="s">
-        <v>196</v>
-      </c>
-      <c r="H100" t="s">
-        <v>866</v>
-      </c>
-      <c r="I100" t="s">
-        <v>867</v>
-      </c>
-      <c r="J100" t="s">
-        <v>868</v>
-      </c>
-      <c r="K100" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
-      <c r="A101" t="s">
-        <v>197</v>
-      </c>
-      <c r="B101" t="s">
-        <v>593</v>
-      </c>
-      <c r="C101" t="s">
-        <v>594</v>
-      </c>
-      <c r="D101" t="s">
-        <v>595</v>
-      </c>
-      <c r="E101" t="s">
-        <v>596</v>
-      </c>
-      <c r="F101" t="s">
-        <v>198</v>
-      </c>
-      <c r="H101" t="s">
-        <v>869</v>
-      </c>
-      <c r="I101" t="s">
-        <v>870</v>
-      </c>
-      <c r="J101" t="s">
-        <v>871</v>
-      </c>
-      <c r="K101" t="s">
-        <v>931</v>
       </c>
     </row>
   </sheetData>
